--- a/Wasser/3_Auswertung Photometrie.xlsx
+++ b/Wasser/3_Auswertung Photometrie.xlsx
@@ -1,32 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan\Desktop\Stefan\Projekte\Masterarbeiten MEES\Masterarbeit Nele Herzig, Alexandra Kornhaß\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA941DB-E8E6-4F0B-8939-4F59A96E1C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="26.06.2025" sheetId="1" r:id="rId1"/>
     <sheet name="23.07.2025" sheetId="2" r:id="rId2"/>
     <sheet name="31.08.2025" sheetId="3" r:id="rId3"/>
+    <sheet name="24.09.2025" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="104">
   <si>
     <t>sample</t>
   </si>
@@ -294,11 +307,56 @@
   <si>
     <t xml:space="preserve">&gt; 05.09.25 Photometrische Messung </t>
   </si>
+  <si>
+    <t>geplante Probenahmetermine : 26.06.25 / 23.07.25 / 31.08.25 / 24.09.25</t>
+  </si>
+  <si>
+    <t>&gt; 25.09.25 Filterung der Proben durch 0,45µm Spritzenvorsatzfilter (Entfernung von Schwebstoffen)</t>
+  </si>
+  <si>
+    <t>9=</t>
+  </si>
+  <si>
+    <t>24.09-Lic-MS-4</t>
+  </si>
+  <si>
+    <t>24.09-Meu-T-MS-2</t>
+  </si>
+  <si>
+    <t>24.09-Meu-N-MS-2</t>
+  </si>
+  <si>
+    <t>24.09-Meu-N-MS-3</t>
+  </si>
+  <si>
+    <t>24.09-Meu-N-MS-1</t>
+  </si>
+  <si>
+    <t>24.09-Meu-T-MS-1</t>
+  </si>
+  <si>
+    <t>24.09-Lic-MS-3</t>
+  </si>
+  <si>
+    <t>24.09-Lic-MS-2</t>
+  </si>
+  <si>
+    <t>24.09-Lic-MS-1</t>
+  </si>
+  <si>
+    <t>&gt; Proben 6-9 wiesen eine leichte gelb Färbung auf</t>
+  </si>
+  <si>
+    <t>&gt;Proben 1-5 weisen eine starke Gelbfärbung auf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 29.09.25 Photometrische Messung </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -1278,9 +1336,9 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1289,12 +1347,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1307,12 +1365,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1322,19 +1379,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1430,6 +1484,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1462,12 +1517,12 @@
     <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Komma 2" xfId="42"/>
+    <cellStyle name="Komma 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="43"/>
+    <cellStyle name="Standard 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1833,6 +1888,1285 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="454233024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Standardreihe Ammonium</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17269622604164925"/>
+                  <c:y val="-0.23108741615631379"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'24.09.2025'!$C$59:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'24.09.2025'!$B$59:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-092C-4CB9-B706-7ED3E80CC243}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="454233024"/>
+        <c:axId val="454234664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="454233024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454234664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="454234664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454233024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Standardreihe Phosphat</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.995106059135024E-2"/>
+                  <c:y val="-0.17634259259259261"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'24.09.2025'!$C$103:$C$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'24.09.2025'!$B$103:$B$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55AD-48EB-8785-BFC70EBB6814}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="503854112"/>
+        <c:axId val="503856408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="503854112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503856408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="503856408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503854112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Standardreihe </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Nitrat salicylate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24071025373082822"/>
+          <c:y val="4.1488715287230402E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15840773669453995"/>
+                  <c:y val="-0.25011050103625415"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'24.09.2025'!$C$125:$C$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'24.09.2025'!$B$125:$B$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="2">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96699999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA47-40EF-A39B-A9564553BB95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="354811976"/>
+        <c:axId val="354822800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="354811976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354822800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="354822800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354811976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4103,7 +5437,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4417,7 +5750,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4524,7 +5856,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4837,7 +6168,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5277,7 +6607,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5345,6 +6674,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6220,6 +7669,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -10365,7 +13362,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 3"/>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10408,7 +13411,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Grafik 4"/>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10451,7 +13460,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10483,7 +13498,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10515,7 +13536,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Diagramm 7"/>
+        <xdr:cNvPr id="8" name="Diagramm 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10552,7 +13579,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1"/>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10595,7 +13628,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2"/>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10638,7 +13677,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10670,7 +13715,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10702,7 +13753,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10739,7 +13796,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1"/>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10782,7 +13845,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2"/>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10825,7 +13894,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10857,7 +13932,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10889,7 +13970,230 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276945</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>69354</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="10232" t="2518" r="11233" b="16866"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4583205"/>
+          <a:ext cx="4229820" cy="5592174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>115260</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>60830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>122769</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="11035" t="3236" r="12434" b="13205"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="115260" y="13805405"/>
+          <a:ext cx="5171114" cy="5214964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>189698</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>174010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>65794</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>59710</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>81651</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>13615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>734794</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>89815</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220115</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>24332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>215314</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>132869</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11171,10 +14475,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L150"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -11190,145 +14494,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
+    <row r="3" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
         <v>45865</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="35" t="s">
+    <row r="10" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
+    <row r="11" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+    <row r="12" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
+    <row r="13" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="35" t="s">
+    <row r="14" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="35" t="s">
+    <row r="15" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="35" t="s">
+    <row r="16" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="35" t="s">
+    <row r="17" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+    <row r="19" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+    <row r="20" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+    <row r="21" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+    <row r="22" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+    <row r="23" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
         <v>60</v>
       </c>
     </row>
@@ -11378,63 +14682,63 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30" t="s">
+      <c r="D54" s="29"/>
+      <c r="E54" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="31"/>
+      <c r="F54" s="30"/>
       <c r="H54" s="16"/>
       <c r="I54" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J54" s="16"/>
     </row>
-    <row r="55" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B55" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C55" s="41">
+      <c r="C55" s="39">
         <v>1</v>
       </c>
-      <c r="D55" s="41"/>
-      <c r="E55" s="44">
+      <c r="D55" s="39"/>
+      <c r="E55" s="42">
         <v>0</v>
       </c>
-      <c r="F55" s="45"/>
+      <c r="F55" s="43"/>
       <c r="H55" s="18"/>
-      <c r="I55" s="28"/>
+      <c r="I55" s="27"/>
       <c r="J55" s="18"/>
     </row>
-    <row r="56" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B56" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="C56" s="41">
+      <c r="C56" s="39">
         <v>2.5</v>
       </c>
-      <c r="D56" s="41"/>
-      <c r="E56" s="44">
+      <c r="D56" s="39"/>
+      <c r="E56" s="42">
         <f t="shared" ref="E56" si="0">(B56-0.0164)/0.0093</f>
         <v>-4.3010752688172157E-2</v>
       </c>
-      <c r="F56" s="45"/>
+      <c r="F56" s="43"/>
       <c r="H56" s="18"/>
-      <c r="I56" s="28"/>
+      <c r="I56" s="27"/>
       <c r="J56" s="18"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -11444,15 +14748,15 @@
       <c r="B57" s="6">
         <v>0.04</v>
       </c>
-      <c r="C57" s="41">
+      <c r="C57" s="39">
         <v>5</v>
       </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="44">
+      <c r="D57" s="39"/>
+      <c r="E57" s="42">
         <f>(B57-0.0164)/0.0093</f>
         <v>2.5376344086021505</v>
       </c>
-      <c r="F57" s="45"/>
+      <c r="F57" s="43"/>
       <c r="H57" s="18">
         <f>C57/1000000</f>
         <v>5.0000000000000004E-6</v>
@@ -11473,15 +14777,15 @@
       <c r="B58" s="6">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="C58" s="41">
+      <c r="C58" s="39">
         <v>10</v>
       </c>
-      <c r="D58" s="41"/>
-      <c r="E58" s="42">
+      <c r="D58" s="39"/>
+      <c r="E58" s="40">
         <f t="shared" ref="E58:E62" si="1">(B58-0.0164)/0.0093</f>
         <v>7.2688172043010768</v>
       </c>
-      <c r="F58" s="43"/>
+      <c r="F58" s="41"/>
       <c r="H58" s="18">
         <f>C58/1000000</f>
         <v>1.0000000000000001E-5</v>
@@ -11495,22 +14799,22 @@
         <v>0.18038460000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B59" s="6">
         <v>0.22800000000000001</v>
       </c>
-      <c r="C59" s="41">
+      <c r="C59" s="39">
         <v>25</v>
       </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="42">
+      <c r="D59" s="39"/>
+      <c r="E59" s="40">
         <f t="shared" si="1"/>
         <v>22.752688172043015</v>
       </c>
-      <c r="F59" s="43"/>
+      <c r="F59" s="41"/>
       <c r="H59" s="18"/>
       <c r="I59" s="18"/>
       <c r="J59" s="21"/>
@@ -11522,15 +14826,15 @@
       <c r="B60" s="6">
         <v>0.54300000000000004</v>
       </c>
-      <c r="C60" s="41">
+      <c r="C60" s="39">
         <v>50</v>
       </c>
-      <c r="D60" s="41"/>
-      <c r="E60" s="42">
+      <c r="D60" s="39"/>
+      <c r="E60" s="40">
         <f t="shared" si="1"/>
         <v>56.62365591397851</v>
       </c>
-      <c r="F60" s="43"/>
+      <c r="F60" s="41"/>
       <c r="H60" s="18">
         <f>C60/1000000</f>
         <v>5.0000000000000002E-5</v>
@@ -11551,15 +14855,15 @@
       <c r="B61" s="6">
         <v>0.98199999999999998</v>
       </c>
-      <c r="C61" s="41">
+      <c r="C61" s="39">
         <v>100</v>
       </c>
-      <c r="D61" s="41"/>
-      <c r="E61" s="42">
+      <c r="D61" s="39"/>
+      <c r="E61" s="40">
         <f t="shared" si="1"/>
         <v>103.82795698924733</v>
       </c>
-      <c r="F61" s="43"/>
+      <c r="F61" s="41"/>
       <c r="H61" s="18">
         <f>C61/1000000</f>
         <v>1E-4</v>
@@ -11580,15 +14884,15 @@
       <c r="B62" s="8">
         <v>1.8460000000000001</v>
       </c>
-      <c r="C62" s="50">
+      <c r="C62" s="48">
         <v>200</v>
       </c>
-      <c r="D62" s="51"/>
-      <c r="E62" s="52">
+      <c r="D62" s="49"/>
+      <c r="E62" s="50">
         <f t="shared" si="1"/>
         <v>196.73118279569894</v>
       </c>
-      <c r="F62" s="53"/>
+      <c r="F62" s="51"/>
       <c r="H62" s="19">
         <f>C62/1000000</f>
         <v>2.0000000000000001E-4</v>
@@ -11609,12 +14913,12 @@
       <c r="B63" s="9">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="C63" s="54"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="56">
+      <c r="C63" s="52"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="54">
         <v>0</v>
       </c>
-      <c r="F63" s="56"/>
+      <c r="F63" s="54"/>
       <c r="H63" s="18">
         <f t="shared" ref="H63:H70" si="4">E63/1000000</f>
         <v>0</v>
@@ -11635,12 +14939,12 @@
       <c r="B64" s="6">
         <v>2E-3</v>
       </c>
-      <c r="C64" s="48"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="44">
+      <c r="C64" s="46"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="42">
         <v>0</v>
       </c>
-      <c r="F64" s="44"/>
+      <c r="F64" s="42"/>
       <c r="H64" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11661,12 +14965,12 @@
       <c r="B65" s="6">
         <v>2E-3</v>
       </c>
-      <c r="C65" s="48"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="44">
+      <c r="C65" s="46"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="42">
         <v>0</v>
       </c>
-      <c r="F65" s="44"/>
+      <c r="F65" s="42"/>
       <c r="H65" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11687,12 +14991,12 @@
       <c r="B66" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="44">
+      <c r="C66" s="46"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="42">
         <v>0</v>
       </c>
-      <c r="F66" s="44"/>
+      <c r="F66" s="42"/>
       <c r="H66" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11713,13 +15017,13 @@
       <c r="B67" s="6">
         <v>0.109</v>
       </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="44">
+      <c r="C67" s="46"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="42">
         <f t="shared" ref="E67:E70" si="7">(B67-0.0164)/0.0093</f>
         <v>9.9569892473118298</v>
       </c>
-      <c r="F67" s="44"/>
+      <c r="F67" s="42"/>
       <c r="H67" s="18">
         <f t="shared" si="4"/>
         <v>9.9569892473118294E-6</v>
@@ -11740,13 +15044,13 @@
       <c r="B68" s="6">
         <v>0.36</v>
       </c>
-      <c r="C68" s="48"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="44">
+      <c r="C68" s="46"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="42">
         <f t="shared" si="7"/>
         <v>36.946236559139784</v>
       </c>
-      <c r="F68" s="44"/>
+      <c r="F68" s="42"/>
       <c r="H68" s="18">
         <f t="shared" si="4"/>
         <v>3.6946236559139785E-5</v>
@@ -11767,13 +15071,13 @@
       <c r="B69" s="6">
         <v>0.91300000000000003</v>
       </c>
-      <c r="C69" s="48"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="44">
+      <c r="C69" s="46"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="42">
         <f t="shared" si="7"/>
         <v>96.408602150537646</v>
       </c>
-      <c r="F69" s="44"/>
+      <c r="F69" s="42"/>
       <c r="H69" s="18">
         <f t="shared" si="4"/>
         <v>9.6408602150537646E-5</v>
@@ -11794,13 +15098,13 @@
       <c r="B70" s="6">
         <v>4.7E-2</v>
       </c>
-      <c r="C70" s="48"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="44">
+      <c r="C70" s="46"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="42">
         <f t="shared" si="7"/>
         <v>3.2903225806451615</v>
       </c>
-      <c r="F70" s="44"/>
+      <c r="F70" s="42"/>
       <c r="H70" s="18">
         <f t="shared" si="4"/>
         <v>3.2903225806451615E-6</v>
@@ -11864,7 +15168,7 @@
         <v>13</v>
       </c>
       <c r="F100" s="2"/>
-      <c r="G100" s="36"/>
+      <c r="G100" s="35"/>
       <c r="I100" s="17" t="s">
         <v>15</v>
       </c>
@@ -11886,11 +15190,11 @@
         <v>0.5</v>
       </c>
       <c r="D101" s="11"/>
-      <c r="E101" s="57">
+      <c r="E101" s="55">
         <f>(B101+0.0049)/0.0204</f>
         <v>0.28921568627450978</v>
       </c>
-      <c r="F101" s="58"/>
+      <c r="F101" s="56"/>
       <c r="I101" s="16">
         <f t="shared" ref="I101:I106" si="8">C101/1000000</f>
         <v>4.9999999999999998E-7</v>
@@ -11915,11 +15219,11 @@
         <v>1</v>
       </c>
       <c r="D102" s="13"/>
-      <c r="E102" s="44">
+      <c r="E102" s="42">
         <f t="shared" ref="E102:E106" si="10">(B102+0.0049)/0.0204</f>
         <v>1.0245098039215685</v>
       </c>
-      <c r="F102" s="45"/>
+      <c r="F102" s="43"/>
       <c r="I102" s="18">
         <f t="shared" si="8"/>
         <v>9.9999999999999995E-7</v>
@@ -11944,11 +15248,11 @@
         <v>5</v>
       </c>
       <c r="D103" s="13"/>
-      <c r="E103" s="44">
+      <c r="E103" s="42">
         <f t="shared" si="10"/>
         <v>4.6029411764705879</v>
       </c>
-      <c r="F103" s="45"/>
+      <c r="F103" s="43"/>
       <c r="I103" s="18">
         <f t="shared" si="8"/>
         <v>5.0000000000000004E-6</v>
@@ -11973,11 +15277,11 @@
         <v>10</v>
       </c>
       <c r="D104" s="13"/>
-      <c r="E104" s="44">
+      <c r="E104" s="42">
         <f t="shared" si="10"/>
         <v>10.877450980392155</v>
       </c>
-      <c r="F104" s="45"/>
+      <c r="F104" s="43"/>
       <c r="I104" s="18">
         <f t="shared" si="8"/>
         <v>1.0000000000000001E-5</v>
@@ -11992,21 +15296,21 @@
       </c>
     </row>
     <row r="105" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="32" t="s">
+      <c r="A105" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B105" s="2">
         <v>0.501</v>
       </c>
-      <c r="C105" s="33">
+      <c r="C105" s="32">
         <v>25</v>
       </c>
-      <c r="D105" s="34"/>
-      <c r="E105" s="44">
+      <c r="D105" s="33"/>
+      <c r="E105" s="42">
         <f t="shared" si="10"/>
         <v>24.799019607843135</v>
       </c>
-      <c r="F105" s="45"/>
+      <c r="F105" s="43"/>
       <c r="I105" s="19">
         <f t="shared" si="8"/>
         <v>2.5000000000000001E-5</v>
@@ -12020,7 +15324,7 @@
         <v>2.3743250000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>3</v>
       </c>
@@ -12031,11 +15335,11 @@
         <v>50</v>
       </c>
       <c r="D106" s="15"/>
-      <c r="E106" s="46">
+      <c r="E106" s="44">
         <f t="shared" si="10"/>
         <v>37.446078431372548</v>
       </c>
-      <c r="F106" s="47"/>
+      <c r="F106" s="45"/>
       <c r="I106" s="18">
         <f t="shared" si="8"/>
         <v>5.0000000000000002E-5</v>
@@ -12056,13 +15360,13 @@
       <c r="B107" s="9">
         <v>0</v>
       </c>
-      <c r="C107" s="54"/>
-      <c r="D107" s="55"/>
-      <c r="E107" s="56">
+      <c r="C107" s="52"/>
+      <c r="D107" s="53"/>
+      <c r="E107" s="54">
         <f t="shared" ref="E107" si="12">(B107+0.0049)/0.0204</f>
         <v>0.24019607843137253</v>
       </c>
-      <c r="F107" s="56"/>
+      <c r="F107" s="54"/>
       <c r="I107" s="18">
         <f>E107/1000000</f>
         <v>2.4019607843137255E-7</v>
@@ -12083,13 +15387,13 @@
       <c r="B108" s="6">
         <v>0</v>
       </c>
-      <c r="C108" s="48"/>
-      <c r="D108" s="49"/>
-      <c r="E108" s="44">
+      <c r="C108" s="46"/>
+      <c r="D108" s="47"/>
+      <c r="E108" s="42">
         <f t="shared" ref="E108:E114" si="13">(B108+0.0049)/0.0204</f>
         <v>0.24019607843137253</v>
       </c>
-      <c r="F108" s="44"/>
+      <c r="F108" s="42"/>
       <c r="I108" s="18">
         <f t="shared" ref="I108:I114" si="14">E108/1000000</f>
         <v>2.4019607843137255E-7</v>
@@ -12110,13 +15414,13 @@
       <c r="B109" s="6">
         <v>0</v>
       </c>
-      <c r="C109" s="48"/>
-      <c r="D109" s="49"/>
-      <c r="E109" s="44">
+      <c r="C109" s="46"/>
+      <c r="D109" s="47"/>
+      <c r="E109" s="42">
         <f t="shared" si="13"/>
         <v>0.24019607843137253</v>
       </c>
-      <c r="F109" s="44"/>
+      <c r="F109" s="42"/>
       <c r="I109" s="18">
         <f t="shared" si="14"/>
         <v>2.4019607843137255E-7</v>
@@ -12137,13 +15441,13 @@
       <c r="B110" s="6">
         <v>0</v>
       </c>
-      <c r="C110" s="48"/>
-      <c r="D110" s="49"/>
-      <c r="E110" s="44">
+      <c r="C110" s="46"/>
+      <c r="D110" s="47"/>
+      <c r="E110" s="42">
         <f t="shared" si="13"/>
         <v>0.24019607843137253</v>
       </c>
-      <c r="F110" s="44"/>
+      <c r="F110" s="42"/>
       <c r="I110" s="18">
         <f t="shared" si="14"/>
         <v>2.4019607843137255E-7</v>
@@ -12164,13 +15468,13 @@
       <c r="B111" s="6">
         <v>1.4E-2</v>
       </c>
-      <c r="C111" s="48"/>
-      <c r="D111" s="49"/>
-      <c r="E111" s="44">
+      <c r="C111" s="46"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="42">
         <f t="shared" si="13"/>
         <v>0.92647058823529405</v>
       </c>
-      <c r="F111" s="44"/>
+      <c r="F111" s="42"/>
       <c r="I111" s="18">
         <f t="shared" si="14"/>
         <v>9.2647058823529408E-7</v>
@@ -12191,13 +15495,13 @@
       <c r="B112" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="C112" s="48"/>
-      <c r="D112" s="49"/>
-      <c r="E112" s="44">
+      <c r="C112" s="46"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="42">
         <f t="shared" si="13"/>
         <v>0.68137254901960775</v>
       </c>
-      <c r="F112" s="44"/>
+      <c r="F112" s="42"/>
       <c r="I112" s="18">
         <f t="shared" si="14"/>
         <v>6.8137254901960776E-7</v>
@@ -12218,13 +15522,13 @@
       <c r="B113" s="6">
         <v>3.9E-2</v>
       </c>
-      <c r="C113" s="48"/>
-      <c r="D113" s="49"/>
-      <c r="E113" s="44">
+      <c r="C113" s="46"/>
+      <c r="D113" s="47"/>
+      <c r="E113" s="42">
         <f t="shared" si="13"/>
         <v>2.1519607843137254</v>
       </c>
-      <c r="F113" s="44"/>
+      <c r="F113" s="42"/>
       <c r="I113" s="18">
         <f t="shared" si="14"/>
         <v>2.1519607843137253E-6</v>
@@ -12245,13 +15549,13 @@
       <c r="B114" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C114" s="48"/>
-      <c r="D114" s="49"/>
-      <c r="E114" s="44">
+      <c r="C114" s="46"/>
+      <c r="D114" s="47"/>
+      <c r="E114" s="42">
         <f t="shared" si="13"/>
         <v>0.53431372549019607</v>
       </c>
-      <c r="F114" s="44"/>
+      <c r="F114" s="42"/>
       <c r="I114" s="18">
         <f t="shared" si="14"/>
         <v>5.3431372549019611E-7</v>
@@ -12265,47 +15569,20 @@
         <v>9.6381967647058819E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="24"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
-    </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="24"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="24"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="25"/>
+      <c r="H119" s="24"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40" t="s">
+      <c r="A120" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B120" s="40"/>
-      <c r="C120" s="40"/>
-      <c r="D120" s="40"/>
-      <c r="E120" s="40"/>
-      <c r="F120" s="40"/>
-      <c r="G120" s="40"/>
-      <c r="H120" s="40"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="24"/>
-      <c r="B121" s="24"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
+      <c r="B120" s="38"/>
+      <c r="C120" s="38"/>
+      <c r="D120" s="38"/>
+      <c r="E120" s="38"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="38"/>
+      <c r="H120" s="38"/>
     </row>
     <row r="122" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
@@ -12322,43 +15599,42 @@
         <v>28</v>
       </c>
       <c r="F122" s="2"/>
-      <c r="G122" s="39"/>
-      <c r="H122" s="24"/>
-    </row>
-    <row r="123" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G122" s="37"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B123" s="4">
         <v>0</v>
       </c>
-      <c r="C123" s="65">
+      <c r="C123" s="63">
         <v>2.5</v>
       </c>
-      <c r="D123" s="66"/>
-      <c r="E123" s="57">
+      <c r="D123" s="64"/>
+      <c r="E123" s="55">
         <v>0</v>
       </c>
-      <c r="F123" s="58"/>
-      <c r="G123" s="37"/>
-    </row>
-    <row r="124" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="32" t="s">
+      <c r="F123" s="56"/>
+      <c r="G123" s="36"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B124" s="2">
         <v>1E-3</v>
       </c>
-      <c r="C124" s="63">
+      <c r="C124" s="61">
         <v>5</v>
       </c>
-      <c r="D124" s="64"/>
-      <c r="E124" s="42">
+      <c r="D124" s="62"/>
+      <c r="E124" s="40">
         <f t="shared" ref="E124:E130" si="17">(B124+0.0067)/0.0019</f>
         <v>4.0526315789473681</v>
       </c>
-      <c r="F124" s="43"/>
-      <c r="G124" s="37"/>
+      <c r="F124" s="41"/>
+      <c r="G124" s="36"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
@@ -12367,35 +15643,34 @@
       <c r="B125" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C125" s="48">
+      <c r="C125" s="46">
         <v>10</v>
       </c>
-      <c r="D125" s="62"/>
-      <c r="E125" s="42">
+      <c r="D125" s="60"/>
+      <c r="E125" s="40">
         <f t="shared" si="17"/>
         <v>7.7368421052631584</v>
       </c>
-      <c r="F125" s="43"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="24"/>
-    </row>
-    <row r="126" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F125" s="41"/>
+      <c r="G125" s="36"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B126" s="6">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="C126" s="48">
+      <c r="C126" s="46">
         <v>25</v>
       </c>
-      <c r="D126" s="62"/>
-      <c r="E126" s="42">
+      <c r="D126" s="60"/>
+      <c r="E126" s="40">
         <f t="shared" si="17"/>
         <v>25.105263157894736</v>
       </c>
-      <c r="F126" s="43"/>
-      <c r="G126" s="37"/>
+      <c r="F126" s="41"/>
+      <c r="G126" s="36"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
@@ -12404,17 +15679,16 @@
       <c r="B127" s="6">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="C127" s="48">
+      <c r="C127" s="46">
         <v>50</v>
       </c>
-      <c r="D127" s="62"/>
-      <c r="E127" s="42">
+      <c r="D127" s="60"/>
+      <c r="E127" s="40">
         <f t="shared" si="17"/>
         <v>47.210526315789473</v>
       </c>
-      <c r="F127" s="43"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="24"/>
+      <c r="F127" s="41"/>
+      <c r="G127" s="36"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
@@ -12423,307 +15697,176 @@
       <c r="B128" s="6">
         <v>0.17499999999999999</v>
       </c>
-      <c r="C128" s="48">
+      <c r="C128" s="46">
         <v>100</v>
       </c>
-      <c r="D128" s="62"/>
-      <c r="E128" s="42">
+      <c r="D128" s="60"/>
+      <c r="E128" s="40">
         <f t="shared" si="17"/>
         <v>95.631578947368425</v>
       </c>
-      <c r="F128" s="43"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="24"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F128" s="41"/>
+      <c r="G128" s="36"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B129" s="6">
         <v>0.375</v>
       </c>
-      <c r="C129" s="48">
+      <c r="C129" s="46">
         <v>200</v>
       </c>
-      <c r="D129" s="62"/>
-      <c r="E129" s="42">
+      <c r="D129" s="60"/>
+      <c r="E129" s="40">
         <f t="shared" si="17"/>
         <v>200.89473684210526</v>
       </c>
-      <c r="F129" s="43"/>
-      <c r="G129" s="37"/>
-      <c r="H129" s="24"/>
-    </row>
-    <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F129" s="41"/>
+      <c r="G129" s="36"/>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B130" s="8">
         <v>0.91500000000000004</v>
       </c>
-      <c r="C130" s="50">
+      <c r="C130" s="48">
         <v>500</v>
       </c>
-      <c r="D130" s="51"/>
-      <c r="E130" s="52">
+      <c r="D130" s="49"/>
+      <c r="E130" s="50">
         <f t="shared" si="17"/>
         <v>485.1052631578948</v>
       </c>
-      <c r="F130" s="53"/>
-      <c r="G130" s="37"/>
-      <c r="H130" s="24"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F130" s="51"/>
+      <c r="G130" s="36"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B131" s="9">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="C131" s="54"/>
-      <c r="D131" s="59"/>
-      <c r="E131" s="60">
+      <c r="C131" s="52"/>
+      <c r="D131" s="57"/>
+      <c r="E131" s="58">
         <f t="shared" ref="E131:E138" si="18">(B131+0.0067)/0.0019</f>
         <v>9.3157894736842106</v>
       </c>
-      <c r="F131" s="61"/>
-      <c r="G131" s="37"/>
-      <c r="H131" s="24"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F131" s="59"/>
+      <c r="G131" s="36"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B132" s="6">
         <v>0</v>
       </c>
-      <c r="C132" s="48"/>
-      <c r="D132" s="62"/>
-      <c r="E132" s="42">
+      <c r="C132" s="46"/>
+      <c r="D132" s="60"/>
+      <c r="E132" s="40">
         <v>0</v>
       </c>
-      <c r="F132" s="67"/>
-      <c r="G132" s="37"/>
-      <c r="H132" s="24"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F132" s="65"/>
+      <c r="G132" s="36"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B133" s="6">
         <v>0</v>
       </c>
-      <c r="C133" s="48"/>
-      <c r="D133" s="62"/>
-      <c r="E133" s="42">
+      <c r="C133" s="46"/>
+      <c r="D133" s="60"/>
+      <c r="E133" s="40">
         <v>0</v>
       </c>
-      <c r="F133" s="67"/>
-      <c r="G133" s="37"/>
-      <c r="H133" s="24"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F133" s="65"/>
+      <c r="G133" s="36"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B134" s="6">
         <v>0</v>
       </c>
-      <c r="C134" s="48"/>
-      <c r="D134" s="62"/>
-      <c r="E134" s="42">
+      <c r="C134" s="46"/>
+      <c r="D134" s="60"/>
+      <c r="E134" s="40">
         <v>0</v>
       </c>
-      <c r="F134" s="67"/>
-      <c r="G134" s="37"/>
-      <c r="H134" s="24"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F134" s="65"/>
+      <c r="G134" s="36"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B135" s="6">
         <v>0</v>
       </c>
-      <c r="C135" s="48"/>
-      <c r="D135" s="62"/>
-      <c r="E135" s="42">
+      <c r="C135" s="46"/>
+      <c r="D135" s="60"/>
+      <c r="E135" s="40">
         <v>0</v>
       </c>
-      <c r="F135" s="67"/>
-      <c r="G135" s="38"/>
-      <c r="H135" s="24"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F135" s="65"/>
+      <c r="G135" s="36"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B136" s="6">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C136" s="48"/>
-      <c r="D136" s="62"/>
-      <c r="E136" s="42">
+      <c r="C136" s="46"/>
+      <c r="D136" s="60"/>
+      <c r="E136" s="40">
         <f t="shared" si="18"/>
         <v>13</v>
       </c>
-      <c r="F136" s="67"/>
-      <c r="G136" s="37"/>
-      <c r="H136" s="24"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F136" s="65"/>
+      <c r="G136" s="36"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B137" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="C137" s="48"/>
-      <c r="D137" s="62"/>
-      <c r="E137" s="42">
+      <c r="C137" s="46"/>
+      <c r="D137" s="60"/>
+      <c r="E137" s="40">
         <f t="shared" si="18"/>
         <v>18.263157894736842</v>
       </c>
-      <c r="F137" s="67"/>
-      <c r="G137" s="37"/>
-      <c r="H137" s="24"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F137" s="65"/>
+      <c r="G137" s="36"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B138" s="6">
         <v>2.7E-2</v>
       </c>
-      <c r="C138" s="48"/>
-      <c r="D138" s="62"/>
-      <c r="E138" s="42">
+      <c r="C138" s="46"/>
+      <c r="D138" s="60"/>
+      <c r="E138" s="40">
         <f t="shared" si="18"/>
         <v>17.736842105263158</v>
       </c>
-      <c r="F138" s="67"/>
-      <c r="G138" s="37"/>
-      <c r="H138" s="24"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="24"/>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="24"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="24"/>
-      <c r="G139" s="24"/>
-      <c r="H139" s="24"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="24"/>
-      <c r="B140" s="24"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="24"/>
-      <c r="E140" s="24"/>
-      <c r="F140" s="24"/>
-      <c r="G140" s="24"/>
-      <c r="H140" s="24"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="24"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="24"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="24"/>
-      <c r="G141" s="24"/>
-      <c r="H141" s="24"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="24"/>
-      <c r="B142" s="24"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="24"/>
-      <c r="E142" s="24"/>
-      <c r="F142" s="24"/>
-      <c r="G142" s="24"/>
-      <c r="H142" s="24"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="24"/>
-      <c r="B143" s="24"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="24"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="24"/>
-      <c r="G143" s="24"/>
-      <c r="H143" s="24"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="24"/>
-      <c r="B144" s="24"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="24"/>
-      <c r="E144" s="24"/>
-      <c r="F144" s="24"/>
-      <c r="G144" s="24"/>
-      <c r="H144" s="24"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="24"/>
-      <c r="B145" s="24"/>
-      <c r="C145" s="24"/>
-      <c r="D145" s="24"/>
-      <c r="E145" s="24"/>
-      <c r="F145" s="24"/>
-      <c r="G145" s="24"/>
-      <c r="H145" s="24"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="24"/>
-      <c r="B146" s="24"/>
-      <c r="C146" s="24"/>
-      <c r="D146" s="24"/>
-      <c r="E146" s="24"/>
-      <c r="F146" s="24"/>
-      <c r="G146" s="24"/>
-      <c r="H146" s="24"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="24"/>
-      <c r="B147" s="24"/>
-      <c r="C147" s="24"/>
-      <c r="D147" s="24"/>
-      <c r="E147" s="24"/>
-      <c r="F147" s="24"/>
-      <c r="G147" s="24"/>
-      <c r="H147" s="24"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="24"/>
-      <c r="B148" s="24"/>
-      <c r="C148" s="24"/>
-      <c r="D148" s="24"/>
-      <c r="E148" s="24"/>
-      <c r="F148" s="24"/>
-      <c r="G148" s="24"/>
-      <c r="H148" s="24"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="24"/>
-      <c r="B149" s="24"/>
-      <c r="C149" s="24"/>
-      <c r="D149" s="24"/>
-      <c r="E149" s="24"/>
-      <c r="F149" s="24"/>
-      <c r="G149" s="24"/>
-      <c r="H149" s="24"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="24"/>
-      <c r="B150" s="24"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="24"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="24"/>
-      <c r="G150" s="24"/>
-      <c r="H150" s="24"/>
+      <c r="F138" s="65"/>
+      <c r="G138" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="88">
@@ -12823,189 +15966,186 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="E137" sqref="E137:F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="24" customWidth="1"/>
-    <col min="3" max="5" width="11.42578125" style="24"/>
-    <col min="6" max="6" width="18.5703125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="24"/>
-    <col min="8" max="8" width="14.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="24" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="24" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="24" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="24"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
+    <row r="3" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
         <v>45862</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="35" t="s">
+    <row r="10" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
+    <row r="11" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+    <row r="12" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
+    <row r="13" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="35" t="s">
+    <row r="14" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="35" t="s">
+    <row r="15" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="35" t="s">
+    <row r="16" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="35" t="s">
+    <row r="17" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+    <row r="19" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+    <row r="20" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+    <row r="21" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+    <row r="22" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+    <row r="23" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H49" s="24" t="s">
+      <c r="H49" t="s">
         <v>24</v>
       </c>
-      <c r="J49" s="24">
+      <c r="J49">
         <v>18.038460000000001</v>
       </c>
-      <c r="K49" s="24" t="s">
+      <c r="K49" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H50" s="24" t="s">
+      <c r="H50" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="24">
+      <c r="J50">
         <v>1E-3</v>
       </c>
-      <c r="K50" s="24" t="s">
+      <c r="K50" t="s">
         <v>17</v>
       </c>
     </row>
@@ -13033,20 +16173,20 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30" t="s">
+      <c r="D54" s="29"/>
+      <c r="E54" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="31"/>
+      <c r="F54" s="30"/>
       <c r="H54" s="16"/>
       <c r="I54" s="20" t="s">
         <v>23</v>
@@ -13058,16 +16198,16 @@
         <v>34</v>
       </c>
       <c r="B55" s="6"/>
-      <c r="C55" s="41">
+      <c r="C55" s="39">
         <v>1</v>
       </c>
-      <c r="D55" s="41"/>
-      <c r="E55" s="44">
+      <c r="D55" s="39"/>
+      <c r="E55" s="42">
         <v>0</v>
       </c>
-      <c r="F55" s="45"/>
+      <c r="F55" s="43"/>
       <c r="H55" s="18"/>
-      <c r="I55" s="28"/>
+      <c r="I55" s="27"/>
       <c r="J55" s="18"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -13075,17 +16215,17 @@
         <v>35</v>
       </c>
       <c r="B56" s="6"/>
-      <c r="C56" s="41">
+      <c r="C56" s="39">
         <v>2.5</v>
       </c>
-      <c r="D56" s="41"/>
-      <c r="E56" s="44">
+      <c r="D56" s="39"/>
+      <c r="E56" s="42">
         <f t="shared" ref="E56" si="0">(B56-0.0164)/0.0093</f>
         <v>-1.763440860215054</v>
       </c>
-      <c r="F56" s="45"/>
+      <c r="F56" s="43"/>
       <c r="H56" s="18"/>
-      <c r="I56" s="28"/>
+      <c r="I56" s="27"/>
       <c r="J56" s="18"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -13095,15 +16235,15 @@
       <c r="B57" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C57" s="41">
+      <c r="C57" s="39">
         <v>5</v>
       </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="44">
+      <c r="D57" s="39"/>
+      <c r="E57" s="42">
         <f>(B57-0.0164)/0.0093</f>
         <v>2.0000000000000004</v>
       </c>
-      <c r="F57" s="45"/>
+      <c r="F57" s="43"/>
       <c r="H57" s="18">
         <f>C57/1000000</f>
         <v>5.0000000000000004E-6</v>
@@ -13124,15 +16264,15 @@
       <c r="B58" s="6">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="C58" s="41">
+      <c r="C58" s="39">
         <v>10</v>
       </c>
-      <c r="D58" s="41"/>
-      <c r="E58" s="42">
+      <c r="D58" s="39"/>
+      <c r="E58" s="40">
         <f t="shared" ref="E58:E62" si="1">(B58-0.0164)/0.0093</f>
         <v>7.1612903225806468</v>
       </c>
-      <c r="F58" s="43"/>
+      <c r="F58" s="41"/>
       <c r="H58" s="18">
         <f>C58/1000000</f>
         <v>1.0000000000000001E-5</v>
@@ -13151,15 +16291,15 @@
         <v>36</v>
       </c>
       <c r="B59" s="6"/>
-      <c r="C59" s="41">
+      <c r="C59" s="39">
         <v>25</v>
       </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="42">
+      <c r="D59" s="39"/>
+      <c r="E59" s="40">
         <f t="shared" si="1"/>
         <v>-1.763440860215054</v>
       </c>
-      <c r="F59" s="43"/>
+      <c r="F59" s="41"/>
       <c r="H59" s="18"/>
       <c r="I59" s="18"/>
       <c r="J59" s="21"/>
@@ -13171,15 +16311,15 @@
       <c r="B60" s="6">
         <v>0.48499999999999999</v>
       </c>
-      <c r="C60" s="41">
+      <c r="C60" s="39">
         <v>50</v>
       </c>
-      <c r="D60" s="41"/>
-      <c r="E60" s="42">
+      <c r="D60" s="39"/>
+      <c r="E60" s="40">
         <f t="shared" si="1"/>
         <v>50.387096774193552</v>
       </c>
-      <c r="F60" s="43"/>
+      <c r="F60" s="41"/>
       <c r="H60" s="18">
         <f>C60/1000000</f>
         <v>5.0000000000000002E-5</v>
@@ -13200,15 +16340,15 @@
       <c r="B61" s="6">
         <v>0.96499999999999997</v>
       </c>
-      <c r="C61" s="41">
+      <c r="C61" s="39">
         <v>100</v>
       </c>
-      <c r="D61" s="41"/>
-      <c r="E61" s="42">
+      <c r="D61" s="39"/>
+      <c r="E61" s="40">
         <f t="shared" si="1"/>
         <v>102.00000000000001</v>
       </c>
-      <c r="F61" s="43"/>
+      <c r="F61" s="41"/>
       <c r="H61" s="18">
         <f>C61/1000000</f>
         <v>1E-4</v>
@@ -13229,15 +16369,15 @@
       <c r="B62" s="8">
         <v>1.8340000000000001</v>
       </c>
-      <c r="C62" s="50">
+      <c r="C62" s="48">
         <v>200</v>
       </c>
-      <c r="D62" s="51"/>
-      <c r="E62" s="52">
+      <c r="D62" s="49"/>
+      <c r="E62" s="50">
         <f t="shared" si="1"/>
         <v>195.44086021505379</v>
       </c>
-      <c r="F62" s="53"/>
+      <c r="F62" s="51"/>
       <c r="H62" s="19">
         <f>C62/1000000</f>
         <v>2.0000000000000001E-4</v>
@@ -13258,12 +16398,12 @@
       <c r="B63" s="9">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="C63" s="54"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="56">
+      <c r="C63" s="52"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="54">
         <v>0</v>
       </c>
-      <c r="F63" s="56"/>
+      <c r="F63" s="54"/>
       <c r="H63" s="18">
         <f t="shared" ref="H63:H70" si="4">E63/1000000</f>
         <v>0</v>
@@ -13284,12 +16424,12 @@
       <c r="B64" s="6">
         <v>2E-3</v>
       </c>
-      <c r="C64" s="48"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="44">
+      <c r="C64" s="46"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="42">
         <v>0</v>
       </c>
-      <c r="F64" s="44"/>
+      <c r="F64" s="42"/>
       <c r="H64" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13310,12 +16450,12 @@
       <c r="B65" s="6">
         <v>2E-3</v>
       </c>
-      <c r="C65" s="48"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="44">
+      <c r="C65" s="46"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="42">
         <v>0</v>
       </c>
-      <c r="F65" s="44"/>
+      <c r="F65" s="42"/>
       <c r="H65" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13336,12 +16476,12 @@
       <c r="B66" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="44">
+      <c r="C66" s="46"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="42">
         <v>0</v>
       </c>
-      <c r="F66" s="44"/>
+      <c r="F66" s="42"/>
       <c r="H66" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13362,13 +16502,13 @@
       <c r="B67" s="6">
         <v>0.109</v>
       </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="44">
+      <c r="C67" s="46"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="42">
         <f t="shared" ref="E67:E70" si="7">(B67-0.0164)/0.0093</f>
         <v>9.9569892473118298</v>
       </c>
-      <c r="F67" s="44"/>
+      <c r="F67" s="42"/>
       <c r="H67" s="18">
         <f t="shared" si="4"/>
         <v>9.9569892473118294E-6</v>
@@ -13389,13 +16529,13 @@
       <c r="B68" s="6">
         <v>0.36</v>
       </c>
-      <c r="C68" s="48"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="44">
+      <c r="C68" s="46"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="42">
         <f t="shared" si="7"/>
         <v>36.946236559139784</v>
       </c>
-      <c r="F68" s="44"/>
+      <c r="F68" s="42"/>
       <c r="H68" s="18">
         <f t="shared" si="4"/>
         <v>3.6946236559139785E-5</v>
@@ -13416,13 +16556,13 @@
       <c r="B69" s="6">
         <v>0.91300000000000003</v>
       </c>
-      <c r="C69" s="48"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="44">
+      <c r="C69" s="46"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="42">
         <f t="shared" si="7"/>
         <v>96.408602150537646</v>
       </c>
-      <c r="F69" s="44"/>
+      <c r="F69" s="42"/>
       <c r="H69" s="18">
         <f t="shared" si="4"/>
         <v>9.6408602150537646E-5</v>
@@ -13443,13 +16583,13 @@
       <c r="B70" s="6">
         <v>4.7E-2</v>
       </c>
-      <c r="C70" s="48"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="44">
+      <c r="C70" s="46"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="42">
         <f t="shared" si="7"/>
         <v>3.2903225806451615</v>
       </c>
-      <c r="F70" s="44"/>
+      <c r="F70" s="42"/>
       <c r="H70" s="18">
         <f t="shared" si="4"/>
         <v>3.2903225806451615E-6</v>
@@ -13464,26 +16604,26 @@
       </c>
     </row>
     <row r="96" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I96" s="24" t="s">
+      <c r="I96" t="s">
         <v>25</v>
       </c>
-      <c r="K96" s="24">
+      <c r="K96">
         <v>94.972999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I97" s="24" t="s">
+      <c r="I97" t="s">
         <v>16</v>
       </c>
-      <c r="K97" s="24">
+      <c r="K97">
         <v>1E-3</v>
       </c>
-      <c r="L97" s="24" t="s">
+      <c r="L97" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L98" s="24" t="s">
+      <c r="L98" t="s">
         <v>17</v>
       </c>
     </row>
@@ -13513,7 +16653,7 @@
         <v>13</v>
       </c>
       <c r="F100" s="2"/>
-      <c r="G100" s="36"/>
+      <c r="G100" s="35"/>
       <c r="I100" s="17" t="s">
         <v>15</v>
       </c>
@@ -13535,11 +16675,11 @@
         <v>0.5</v>
       </c>
       <c r="D101" s="11"/>
-      <c r="E101" s="57">
+      <c r="E101" s="55">
         <f>(B101+0.0049)/0.0204</f>
         <v>0.28921568627450978</v>
       </c>
-      <c r="F101" s="58"/>
+      <c r="F101" s="56"/>
       <c r="I101" s="16">
         <f t="shared" ref="I101:I106" si="8">C101/1000000</f>
         <v>4.9999999999999998E-7</v>
@@ -13564,11 +16704,11 @@
         <v>1</v>
       </c>
       <c r="D102" s="13"/>
-      <c r="E102" s="44">
+      <c r="E102" s="42">
         <f t="shared" ref="E102:E114" si="10">(B102+0.0049)/0.0204</f>
         <v>1.0245098039215685</v>
       </c>
-      <c r="F102" s="45"/>
+      <c r="F102" s="43"/>
       <c r="I102" s="18">
         <f t="shared" si="8"/>
         <v>9.9999999999999995E-7</v>
@@ -13593,11 +16733,11 @@
         <v>5</v>
       </c>
       <c r="D103" s="13"/>
-      <c r="E103" s="44">
+      <c r="E103" s="42">
         <f t="shared" si="10"/>
         <v>4.6029411764705879</v>
       </c>
-      <c r="F103" s="45"/>
+      <c r="F103" s="43"/>
       <c r="I103" s="18">
         <f t="shared" si="8"/>
         <v>5.0000000000000004E-6</v>
@@ -13622,11 +16762,11 @@
         <v>10</v>
       </c>
       <c r="D104" s="13"/>
-      <c r="E104" s="44">
+      <c r="E104" s="42">
         <f t="shared" si="10"/>
         <v>10.877450980392155</v>
       </c>
-      <c r="F104" s="45"/>
+      <c r="F104" s="43"/>
       <c r="I104" s="18">
         <f t="shared" si="8"/>
         <v>1.0000000000000001E-5</v>
@@ -13641,21 +16781,21 @@
       </c>
     </row>
     <row r="105" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="32" t="s">
+      <c r="A105" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B105" s="2">
         <v>0.501</v>
       </c>
-      <c r="C105" s="33">
+      <c r="C105" s="32">
         <v>25</v>
       </c>
-      <c r="D105" s="34"/>
-      <c r="E105" s="44">
+      <c r="D105" s="33"/>
+      <c r="E105" s="42">
         <f t="shared" si="10"/>
         <v>24.799019607843135</v>
       </c>
-      <c r="F105" s="45"/>
+      <c r="F105" s="43"/>
       <c r="I105" s="19">
         <f t="shared" si="8"/>
         <v>2.5000000000000001E-5</v>
@@ -13680,11 +16820,11 @@
         <v>50</v>
       </c>
       <c r="D106" s="15"/>
-      <c r="E106" s="46">
+      <c r="E106" s="44">
         <f t="shared" si="10"/>
         <v>37.446078431372548</v>
       </c>
-      <c r="F106" s="47"/>
+      <c r="F106" s="45"/>
       <c r="I106" s="18">
         <f t="shared" si="8"/>
         <v>5.0000000000000002E-5</v>
@@ -13705,13 +16845,13 @@
       <c r="B107" s="9">
         <v>0</v>
       </c>
-      <c r="C107" s="54"/>
-      <c r="D107" s="55"/>
-      <c r="E107" s="56">
+      <c r="C107" s="52"/>
+      <c r="D107" s="53"/>
+      <c r="E107" s="54">
         <f t="shared" si="10"/>
         <v>0.24019607843137253</v>
       </c>
-      <c r="F107" s="56"/>
+      <c r="F107" s="54"/>
       <c r="I107" s="18">
         <f>E107/1000000</f>
         <v>2.4019607843137255E-7</v>
@@ -13732,13 +16872,13 @@
       <c r="B108" s="6">
         <v>0</v>
       </c>
-      <c r="C108" s="48"/>
-      <c r="D108" s="49"/>
-      <c r="E108" s="44">
+      <c r="C108" s="46"/>
+      <c r="D108" s="47"/>
+      <c r="E108" s="42">
         <f t="shared" si="10"/>
         <v>0.24019607843137253</v>
       </c>
-      <c r="F108" s="44"/>
+      <c r="F108" s="42"/>
       <c r="I108" s="18">
         <f t="shared" ref="I108:I114" si="12">E108/1000000</f>
         <v>2.4019607843137255E-7</v>
@@ -13759,13 +16899,13 @@
       <c r="B109" s="6">
         <v>0</v>
       </c>
-      <c r="C109" s="48"/>
-      <c r="D109" s="49"/>
-      <c r="E109" s="44">
+      <c r="C109" s="46"/>
+      <c r="D109" s="47"/>
+      <c r="E109" s="42">
         <f t="shared" si="10"/>
         <v>0.24019607843137253</v>
       </c>
-      <c r="F109" s="44"/>
+      <c r="F109" s="42"/>
       <c r="I109" s="18">
         <f t="shared" si="12"/>
         <v>2.4019607843137255E-7</v>
@@ -13786,13 +16926,13 @@
       <c r="B110" s="6">
         <v>0</v>
       </c>
-      <c r="C110" s="48"/>
-      <c r="D110" s="49"/>
-      <c r="E110" s="44">
+      <c r="C110" s="46"/>
+      <c r="D110" s="47"/>
+      <c r="E110" s="42">
         <f t="shared" si="10"/>
         <v>0.24019607843137253</v>
       </c>
-      <c r="F110" s="44"/>
+      <c r="F110" s="42"/>
       <c r="I110" s="18">
         <f t="shared" si="12"/>
         <v>2.4019607843137255E-7</v>
@@ -13813,13 +16953,13 @@
       <c r="B111" s="6">
         <v>1.4E-2</v>
       </c>
-      <c r="C111" s="48"/>
-      <c r="D111" s="49"/>
-      <c r="E111" s="44">
+      <c r="C111" s="46"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="42">
         <f t="shared" si="10"/>
         <v>0.92647058823529405</v>
       </c>
-      <c r="F111" s="44"/>
+      <c r="F111" s="42"/>
       <c r="I111" s="18">
         <f t="shared" si="12"/>
         <v>9.2647058823529408E-7</v>
@@ -13840,13 +16980,13 @@
       <c r="B112" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="C112" s="48"/>
-      <c r="D112" s="49"/>
-      <c r="E112" s="44">
+      <c r="C112" s="46"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="42">
         <f t="shared" si="10"/>
         <v>0.68137254901960775</v>
       </c>
-      <c r="F112" s="44"/>
+      <c r="F112" s="42"/>
       <c r="I112" s="18">
         <f t="shared" si="12"/>
         <v>6.8137254901960776E-7</v>
@@ -13867,13 +17007,13 @@
       <c r="B113" s="6">
         <v>3.9E-2</v>
       </c>
-      <c r="C113" s="48"/>
-      <c r="D113" s="49"/>
-      <c r="E113" s="44">
+      <c r="C113" s="46"/>
+      <c r="D113" s="47"/>
+      <c r="E113" s="42">
         <f t="shared" si="10"/>
         <v>2.1519607843137254</v>
       </c>
-      <c r="F113" s="44"/>
+      <c r="F113" s="42"/>
       <c r="I113" s="18">
         <f t="shared" si="12"/>
         <v>2.1519607843137253E-6</v>
@@ -13894,13 +17034,13 @@
       <c r="B114" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C114" s="48"/>
-      <c r="D114" s="49"/>
-      <c r="E114" s="44">
+      <c r="C114" s="46"/>
+      <c r="D114" s="47"/>
+      <c r="E114" s="42">
         <f t="shared" si="10"/>
         <v>0.53431372549019607</v>
       </c>
-      <c r="F114" s="44"/>
+      <c r="F114" s="42"/>
       <c r="I114" s="18">
         <f t="shared" si="12"/>
         <v>5.3431372549019611E-7</v>
@@ -13915,19 +17055,19 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H119" s="25"/>
+      <c r="H119" s="24"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40" t="s">
+      <c r="A120" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B120" s="40"/>
-      <c r="C120" s="40"/>
-      <c r="D120" s="40"/>
-      <c r="E120" s="40"/>
-      <c r="F120" s="40"/>
-      <c r="G120" s="40"/>
-      <c r="H120" s="40"/>
+      <c r="B120" s="38"/>
+      <c r="C120" s="38"/>
+      <c r="D120" s="38"/>
+      <c r="E120" s="38"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="38"/>
+      <c r="H120" s="38"/>
     </row>
     <row r="122" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
@@ -13944,7 +17084,7 @@
         <v>28</v>
       </c>
       <c r="F122" s="2"/>
-      <c r="G122" s="39"/>
+      <c r="G122" s="37"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
@@ -13953,33 +17093,33 @@
       <c r="B123" s="4">
         <v>0</v>
       </c>
-      <c r="C123" s="65">
+      <c r="C123" s="63">
         <v>2.5</v>
       </c>
-      <c r="D123" s="66"/>
-      <c r="E123" s="57">
+      <c r="D123" s="64"/>
+      <c r="E123" s="55">
         <v>0</v>
       </c>
-      <c r="F123" s="58"/>
-      <c r="G123" s="37"/>
+      <c r="F123" s="56"/>
+      <c r="G123" s="36"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="32" t="s">
+      <c r="A124" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B124" s="2">
         <v>1E-3</v>
       </c>
-      <c r="C124" s="63">
+      <c r="C124" s="61">
         <v>5</v>
       </c>
-      <c r="D124" s="64"/>
-      <c r="E124" s="42">
+      <c r="D124" s="62"/>
+      <c r="E124" s="40">
         <f t="shared" ref="E124:E138" si="15">(B124+0.0067)/0.0019</f>
         <v>4.0526315789473681</v>
       </c>
-      <c r="F124" s="43"/>
-      <c r="G124" s="37"/>
+      <c r="F124" s="41"/>
+      <c r="G124" s="36"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
@@ -13988,16 +17128,16 @@
       <c r="B125" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C125" s="48">
+      <c r="C125" s="46">
         <v>10</v>
       </c>
-      <c r="D125" s="62"/>
-      <c r="E125" s="42">
+      <c r="D125" s="60"/>
+      <c r="E125" s="40">
         <f t="shared" si="15"/>
         <v>7.7368421052631584</v>
       </c>
-      <c r="F125" s="43"/>
-      <c r="G125" s="37"/>
+      <c r="F125" s="41"/>
+      <c r="G125" s="36"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
@@ -14006,16 +17146,16 @@
       <c r="B126" s="6">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="C126" s="48">
+      <c r="C126" s="46">
         <v>25</v>
       </c>
-      <c r="D126" s="62"/>
-      <c r="E126" s="42">
+      <c r="D126" s="60"/>
+      <c r="E126" s="40">
         <f t="shared" si="15"/>
         <v>25.105263157894736</v>
       </c>
-      <c r="F126" s="43"/>
-      <c r="G126" s="37"/>
+      <c r="F126" s="41"/>
+      <c r="G126" s="36"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
@@ -14024,16 +17164,16 @@
       <c r="B127" s="6">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="C127" s="48">
+      <c r="C127" s="46">
         <v>50</v>
       </c>
-      <c r="D127" s="62"/>
-      <c r="E127" s="42">
+      <c r="D127" s="60"/>
+      <c r="E127" s="40">
         <f t="shared" si="15"/>
         <v>47.210526315789473</v>
       </c>
-      <c r="F127" s="43"/>
-      <c r="G127" s="37"/>
+      <c r="F127" s="41"/>
+      <c r="G127" s="36"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
@@ -14042,16 +17182,16 @@
       <c r="B128" s="6">
         <v>0.17499999999999999</v>
       </c>
-      <c r="C128" s="48">
+      <c r="C128" s="46">
         <v>100</v>
       </c>
-      <c r="D128" s="62"/>
-      <c r="E128" s="42">
+      <c r="D128" s="60"/>
+      <c r="E128" s="40">
         <f t="shared" si="15"/>
         <v>95.631578947368425</v>
       </c>
-      <c r="F128" s="43"/>
-      <c r="G128" s="37"/>
+      <c r="F128" s="41"/>
+      <c r="G128" s="36"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
@@ -14060,16 +17200,16 @@
       <c r="B129" s="6">
         <v>0.375</v>
       </c>
-      <c r="C129" s="48">
+      <c r="C129" s="46">
         <v>200</v>
       </c>
-      <c r="D129" s="62"/>
-      <c r="E129" s="42">
+      <c r="D129" s="60"/>
+      <c r="E129" s="40">
         <f t="shared" si="15"/>
         <v>200.89473684210526</v>
       </c>
-      <c r="F129" s="43"/>
-      <c r="G129" s="37"/>
+      <c r="F129" s="41"/>
+      <c r="G129" s="36"/>
     </row>
     <row r="130" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
@@ -14078,16 +17218,16 @@
       <c r="B130" s="8">
         <v>0.91500000000000004</v>
       </c>
-      <c r="C130" s="50">
+      <c r="C130" s="48">
         <v>500</v>
       </c>
-      <c r="D130" s="51"/>
-      <c r="E130" s="52">
+      <c r="D130" s="49"/>
+      <c r="E130" s="50">
         <f t="shared" si="15"/>
         <v>485.1052631578948</v>
       </c>
-      <c r="F130" s="53"/>
-      <c r="G130" s="37"/>
+      <c r="F130" s="51"/>
+      <c r="G130" s="36"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
@@ -14096,14 +17236,14 @@
       <c r="B131" s="9">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="C131" s="54"/>
-      <c r="D131" s="59"/>
-      <c r="E131" s="60">
+      <c r="C131" s="52"/>
+      <c r="D131" s="57"/>
+      <c r="E131" s="58">
         <f t="shared" si="15"/>
         <v>9.3157894736842106</v>
       </c>
-      <c r="F131" s="61"/>
-      <c r="G131" s="37"/>
+      <c r="F131" s="59"/>
+      <c r="G131" s="36"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
@@ -14112,13 +17252,13 @@
       <c r="B132" s="6">
         <v>0</v>
       </c>
-      <c r="C132" s="48"/>
-      <c r="D132" s="62"/>
-      <c r="E132" s="42">
+      <c r="C132" s="46"/>
+      <c r="D132" s="60"/>
+      <c r="E132" s="40">
         <v>0</v>
       </c>
-      <c r="F132" s="67"/>
-      <c r="G132" s="37"/>
+      <c r="F132" s="65"/>
+      <c r="G132" s="36"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
@@ -14127,13 +17267,13 @@
       <c r="B133" s="6">
         <v>0</v>
       </c>
-      <c r="C133" s="48"/>
-      <c r="D133" s="62"/>
-      <c r="E133" s="42">
+      <c r="C133" s="46"/>
+      <c r="D133" s="60"/>
+      <c r="E133" s="40">
         <v>0</v>
       </c>
-      <c r="F133" s="67"/>
-      <c r="G133" s="37"/>
+      <c r="F133" s="65"/>
+      <c r="G133" s="36"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
@@ -14142,13 +17282,13 @@
       <c r="B134" s="6">
         <v>0</v>
       </c>
-      <c r="C134" s="48"/>
-      <c r="D134" s="62"/>
-      <c r="E134" s="42">
+      <c r="C134" s="46"/>
+      <c r="D134" s="60"/>
+      <c r="E134" s="40">
         <v>0</v>
       </c>
-      <c r="F134" s="67"/>
-      <c r="G134" s="37"/>
+      <c r="F134" s="65"/>
+      <c r="G134" s="36"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
@@ -14157,13 +17297,13 @@
       <c r="B135" s="6">
         <v>0</v>
       </c>
-      <c r="C135" s="48"/>
-      <c r="D135" s="62"/>
-      <c r="E135" s="42">
+      <c r="C135" s="46"/>
+      <c r="D135" s="60"/>
+      <c r="E135" s="40">
         <v>0</v>
       </c>
-      <c r="F135" s="67"/>
-      <c r="G135" s="38"/>
+      <c r="F135" s="65"/>
+      <c r="G135" s="36"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
@@ -14172,14 +17312,14 @@
       <c r="B136" s="6">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C136" s="48"/>
-      <c r="D136" s="62"/>
-      <c r="E136" s="42">
+      <c r="C136" s="46"/>
+      <c r="D136" s="60"/>
+      <c r="E136" s="40">
         <f t="shared" si="15"/>
         <v>13</v>
       </c>
-      <c r="F136" s="67"/>
-      <c r="G136" s="37"/>
+      <c r="F136" s="65"/>
+      <c r="G136" s="36"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
@@ -14188,14 +17328,14 @@
       <c r="B137" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="C137" s="48"/>
-      <c r="D137" s="62"/>
-      <c r="E137" s="42">
+      <c r="C137" s="46"/>
+      <c r="D137" s="60"/>
+      <c r="E137" s="40">
         <f t="shared" si="15"/>
         <v>18.263157894736842</v>
       </c>
-      <c r="F137" s="67"/>
-      <c r="G137" s="37"/>
+      <c r="F137" s="65"/>
+      <c r="G137" s="36"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
@@ -14204,14 +17344,14 @@
       <c r="B138" s="6">
         <v>2.7E-2</v>
       </c>
-      <c r="C138" s="48"/>
-      <c r="D138" s="62"/>
-      <c r="E138" s="42">
+      <c r="C138" s="46"/>
+      <c r="D138" s="60"/>
+      <c r="E138" s="40">
         <f t="shared" si="15"/>
         <v>17.736842105263158</v>
       </c>
-      <c r="F138" s="67"/>
-      <c r="G138" s="37"/>
+      <c r="F138" s="65"/>
+      <c r="G138" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="88">
@@ -14311,194 +17451,191 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="24" customWidth="1"/>
-    <col min="3" max="5" width="11.42578125" style="24"/>
-    <col min="6" max="6" width="18.5703125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="24"/>
-    <col min="8" max="8" width="14.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="24" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="24" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="24" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="24"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
+    <row r="3" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
         <v>45901</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="35" t="s">
+    <row r="10" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
+    <row r="11" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+    <row r="12" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
+    <row r="13" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="35" t="s">
+    <row r="14" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="35" t="s">
+    <row r="15" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="35" t="s">
+    <row r="16" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="35" t="s">
+    <row r="17" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+    <row r="19" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+    <row r="20" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+    <row r="21" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+    <row r="22" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+    <row r="23" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+    <row r="24" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H50" s="24" t="s">
+      <c r="H50" t="s">
         <v>24</v>
       </c>
-      <c r="J50" s="24">
+      <c r="J50">
         <v>18.038460000000001</v>
       </c>
-      <c r="K50" s="24" t="s">
+      <c r="K50" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H51" s="24" t="s">
+      <c r="H51" t="s">
         <v>16</v>
       </c>
-      <c r="J51" s="24">
+      <c r="J51">
         <v>1E-3</v>
       </c>
-      <c r="K51" s="24" t="s">
+      <c r="K51" t="s">
         <v>17</v>
       </c>
     </row>
@@ -14526,20 +17663,20 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30" t="s">
+      <c r="D55" s="29"/>
+      <c r="E55" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="31"/>
+      <c r="F55" s="30"/>
       <c r="H55" s="16"/>
       <c r="I55" s="20" t="s">
         <v>23</v>
@@ -14551,16 +17688,16 @@
         <v>34</v>
       </c>
       <c r="B56" s="6"/>
-      <c r="C56" s="41">
+      <c r="C56" s="39">
         <v>1</v>
       </c>
-      <c r="D56" s="41"/>
-      <c r="E56" s="44">
+      <c r="D56" s="39"/>
+      <c r="E56" s="42">
         <v>0</v>
       </c>
-      <c r="F56" s="45"/>
+      <c r="F56" s="43"/>
       <c r="H56" s="18"/>
-      <c r="I56" s="28"/>
+      <c r="I56" s="27"/>
       <c r="J56" s="18"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -14568,17 +17705,17 @@
         <v>35</v>
       </c>
       <c r="B57" s="6"/>
-      <c r="C57" s="41">
+      <c r="C57" s="39">
         <v>2.5</v>
       </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="44">
+      <c r="D57" s="39"/>
+      <c r="E57" s="42">
         <f>(B57+0.0048)/0.0096</f>
         <v>0.5</v>
       </c>
-      <c r="F57" s="45"/>
+      <c r="F57" s="43"/>
       <c r="H57" s="18"/>
-      <c r="I57" s="28"/>
+      <c r="I57" s="27"/>
       <c r="J57" s="18"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -14588,15 +17725,15 @@
       <c r="B58" s="6">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C58" s="41">
+      <c r="C58" s="39">
         <v>5</v>
       </c>
-      <c r="D58" s="41"/>
-      <c r="E58" s="44">
+      <c r="D58" s="39"/>
+      <c r="E58" s="42">
         <f>(B58+0.0048)/0.0096</f>
         <v>4.25</v>
       </c>
-      <c r="F58" s="45"/>
+      <c r="F58" s="43"/>
       <c r="H58" s="18">
         <f>C58/1000000</f>
         <v>5.0000000000000004E-6</v>
@@ -14617,15 +17754,15 @@
       <c r="B59" s="6">
         <v>0.08</v>
       </c>
-      <c r="C59" s="41">
+      <c r="C59" s="39">
         <v>10</v>
       </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="44">
+      <c r="D59" s="39"/>
+      <c r="E59" s="42">
         <f t="shared" ref="E59:E62" si="0">(B59+0.0048)/0.0096</f>
         <v>8.8333333333333339</v>
       </c>
-      <c r="F59" s="45"/>
+      <c r="F59" s="43"/>
       <c r="H59" s="18">
         <f>C59/1000000</f>
         <v>1.0000000000000001E-5</v>
@@ -14644,15 +17781,15 @@
         <v>36</v>
       </c>
       <c r="B60" s="6"/>
-      <c r="C60" s="41">
+      <c r="C60" s="39">
         <v>25</v>
       </c>
-      <c r="D60" s="41"/>
-      <c r="E60" s="44">
+      <c r="D60" s="39"/>
+      <c r="E60" s="42">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F60" s="45"/>
+      <c r="F60" s="43"/>
       <c r="H60" s="18"/>
       <c r="I60" s="18"/>
       <c r="J60" s="21"/>
@@ -14664,15 +17801,15 @@
       <c r="B61" s="6">
         <v>0.48399999999999999</v>
       </c>
-      <c r="C61" s="41">
+      <c r="C61" s="39">
         <v>50</v>
       </c>
-      <c r="D61" s="41"/>
-      <c r="E61" s="44">
+      <c r="D61" s="39"/>
+      <c r="E61" s="42">
         <f t="shared" si="0"/>
         <v>50.916666666666671</v>
       </c>
-      <c r="F61" s="45"/>
+      <c r="F61" s="43"/>
       <c r="H61" s="18">
         <f>C61/1000000</f>
         <v>5.0000000000000002E-5</v>
@@ -14693,15 +17830,15 @@
       <c r="B62" s="6">
         <v>0.97299999999999998</v>
       </c>
-      <c r="C62" s="41">
+      <c r="C62" s="39">
         <v>100</v>
       </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="44">
+      <c r="D62" s="39"/>
+      <c r="E62" s="42">
         <f t="shared" si="0"/>
         <v>101.85416666666667</v>
       </c>
-      <c r="F62" s="45"/>
+      <c r="F62" s="43"/>
       <c r="H62" s="18">
         <f>C62/1000000</f>
         <v>1E-4</v>
@@ -14722,15 +17859,15 @@
       <c r="B63" s="8">
         <v>1.899</v>
       </c>
-      <c r="C63" s="50">
+      <c r="C63" s="48">
         <v>200</v>
       </c>
-      <c r="D63" s="51"/>
-      <c r="E63" s="46">
+      <c r="D63" s="49"/>
+      <c r="E63" s="44">
         <f t="shared" ref="E63" si="3">(B63+0.0048)/0.0096</f>
         <v>198.3125</v>
       </c>
-      <c r="F63" s="47"/>
+      <c r="F63" s="45"/>
       <c r="H63" s="19">
         <f>C63/1000000</f>
         <v>2.0000000000000001E-4</v>
@@ -14751,13 +17888,13 @@
       <c r="B64" s="9">
         <v>1.25</v>
       </c>
-      <c r="C64" s="54"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="56">
+      <c r="C64" s="52"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="54">
         <f t="shared" ref="E64" si="4">(B64+0.0048)/0.0096</f>
         <v>130.70833333333334</v>
       </c>
-      <c r="F64" s="68"/>
+      <c r="F64" s="66"/>
       <c r="H64" s="18">
         <f t="shared" ref="H64:H71" si="5">E64/1000000</f>
         <v>1.3070833333333334E-4</v>
@@ -14778,13 +17915,13 @@
       <c r="B65" s="6">
         <v>1E-3</v>
       </c>
-      <c r="C65" s="48"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="56">
+      <c r="C65" s="46"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="54">
         <f t="shared" ref="E65:E71" si="6">(B65+0.0048)/0.0096</f>
         <v>0.60416666666666663</v>
       </c>
-      <c r="F65" s="68"/>
+      <c r="F65" s="66"/>
       <c r="H65" s="18">
         <f t="shared" si="5"/>
         <v>6.0416666666666667E-7</v>
@@ -14805,13 +17942,13 @@
       <c r="B66" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="56">
+      <c r="C66" s="46"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="54">
         <f t="shared" si="6"/>
         <v>1.0208333333333335</v>
       </c>
-      <c r="F66" s="68"/>
+      <c r="F66" s="66"/>
       <c r="H66" s="18">
         <f t="shared" si="5"/>
         <v>1.0208333333333334E-6</v>
@@ -14832,13 +17969,13 @@
       <c r="B67" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="56">
+      <c r="C67" s="46"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="54">
         <f t="shared" si="6"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="F67" s="68"/>
+      <c r="F67" s="66"/>
       <c r="H67" s="18">
         <f t="shared" si="5"/>
         <v>1.3333333333333332E-6</v>
@@ -14859,13 +17996,13 @@
       <c r="B68" s="6">
         <v>1.4E-2</v>
       </c>
-      <c r="C68" s="48"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="56">
+      <c r="C68" s="46"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="54">
         <f t="shared" si="6"/>
         <v>1.9583333333333335</v>
       </c>
-      <c r="F68" s="68"/>
+      <c r="F68" s="66"/>
       <c r="H68" s="18">
         <f t="shared" si="5"/>
         <v>1.9583333333333334E-6</v>
@@ -14886,13 +18023,13 @@
       <c r="B69" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="C69" s="48"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="56">
+      <c r="C69" s="46"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="54">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="F69" s="68"/>
+      <c r="F69" s="66"/>
       <c r="H69" s="18">
         <f t="shared" si="5"/>
         <v>3.0000000000000001E-6</v>
@@ -14913,13 +18050,13 @@
       <c r="B70" s="6">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="C70" s="48"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="56">
+      <c r="C70" s="46"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="54">
         <f t="shared" si="6"/>
         <v>4.7708333333333339</v>
       </c>
-      <c r="F70" s="68"/>
+      <c r="F70" s="66"/>
       <c r="H70" s="18">
         <f t="shared" si="5"/>
         <v>4.7708333333333335E-6</v>
@@ -14940,13 +18077,13 @@
       <c r="B71" s="6">
         <v>0.311</v>
       </c>
-      <c r="C71" s="48"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="56">
+      <c r="C71" s="46"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="54">
         <f t="shared" si="6"/>
         <v>32.895833333333336</v>
       </c>
-      <c r="F71" s="68"/>
+      <c r="F71" s="66"/>
       <c r="H71" s="18">
         <f t="shared" si="5"/>
         <v>3.2895833333333338E-5</v>
@@ -14961,26 +18098,26 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I97" s="24" t="s">
+      <c r="I97" t="s">
         <v>25</v>
       </c>
-      <c r="K97" s="24">
+      <c r="K97">
         <v>94.972999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I98" s="24" t="s">
+      <c r="I98" t="s">
         <v>16</v>
       </c>
-      <c r="K98" s="24">
+      <c r="K98">
         <v>1E-3</v>
       </c>
-      <c r="L98" s="24" t="s">
+      <c r="L98" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L99" s="24" t="s">
+      <c r="L99" t="s">
         <v>17</v>
       </c>
     </row>
@@ -15010,7 +18147,7 @@
         <v>13</v>
       </c>
       <c r="F101" s="2"/>
-      <c r="G101" s="36"/>
+      <c r="G101" s="35"/>
       <c r="I101" s="17" t="s">
         <v>15</v>
       </c>
@@ -15032,11 +18169,11 @@
         <v>0.5</v>
       </c>
       <c r="D102" s="11"/>
-      <c r="E102" s="57">
+      <c r="E102" s="55">
         <f>(B102+0.001)/0.0211</f>
         <v>0.56872037914691942</v>
       </c>
-      <c r="F102" s="58"/>
+      <c r="F102" s="56"/>
       <c r="I102" s="16">
         <f t="shared" ref="I102:I107" si="9">C102/1000000</f>
         <v>4.9999999999999998E-7</v>
@@ -15061,11 +18198,11 @@
         <v>1</v>
       </c>
       <c r="D103" s="13"/>
-      <c r="E103" s="44">
+      <c r="E103" s="42">
         <f t="shared" ref="E103:E107" si="11">(B103+0.001)/0.0211</f>
         <v>1.0426540284360191</v>
       </c>
-      <c r="F103" s="45"/>
+      <c r="F103" s="43"/>
       <c r="I103" s="18">
         <f t="shared" si="9"/>
         <v>9.9999999999999995E-7</v>
@@ -15090,11 +18227,11 @@
         <v>5</v>
       </c>
       <c r="D104" s="13"/>
-      <c r="E104" s="44">
+      <c r="E104" s="42">
         <f t="shared" si="11"/>
         <v>5.0236966824644549</v>
       </c>
-      <c r="F104" s="45"/>
+      <c r="F104" s="43"/>
       <c r="I104" s="18">
         <f t="shared" si="9"/>
         <v>5.0000000000000004E-6</v>
@@ -15119,11 +18256,11 @@
         <v>10</v>
       </c>
       <c r="D105" s="13"/>
-      <c r="E105" s="44">
+      <c r="E105" s="42">
         <f t="shared" si="11"/>
         <v>10.284360189573459</v>
       </c>
-      <c r="F105" s="45"/>
+      <c r="F105" s="43"/>
       <c r="I105" s="18">
         <f t="shared" si="9"/>
         <v>1.0000000000000001E-5</v>
@@ -15138,21 +18275,21 @@
       </c>
     </row>
     <row r="106" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="32" t="s">
+      <c r="A106" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B106" s="2">
         <v>0.52600000000000002</v>
       </c>
-      <c r="C106" s="33">
+      <c r="C106" s="32">
         <v>25</v>
       </c>
-      <c r="D106" s="34"/>
-      <c r="E106" s="44">
+      <c r="D106" s="33"/>
+      <c r="E106" s="42">
         <f t="shared" si="11"/>
         <v>24.976303317535546</v>
       </c>
-      <c r="F106" s="45"/>
+      <c r="F106" s="43"/>
       <c r="I106" s="19">
         <f t="shared" si="9"/>
         <v>2.5000000000000001E-5</v>
@@ -15177,11 +18314,11 @@
         <v>50</v>
       </c>
       <c r="D107" s="15"/>
-      <c r="E107" s="46">
+      <c r="E107" s="44">
         <f t="shared" si="11"/>
         <v>78.436018957345965</v>
       </c>
-      <c r="F107" s="47"/>
+      <c r="F107" s="45"/>
       <c r="I107" s="18">
         <f t="shared" si="9"/>
         <v>5.0000000000000002E-5</v>
@@ -15202,13 +18339,13 @@
       <c r="B108" s="9">
         <v>0</v>
       </c>
-      <c r="C108" s="54"/>
-      <c r="D108" s="55"/>
-      <c r="E108" s="56">
+      <c r="C108" s="52"/>
+      <c r="D108" s="53"/>
+      <c r="E108" s="54">
         <f t="shared" ref="E108:E115" si="13">(B108+0.001)/0.0211</f>
         <v>4.7393364928909949E-2</v>
       </c>
-      <c r="F108" s="56"/>
+      <c r="F108" s="54"/>
       <c r="I108" s="18">
         <f>E108/1000000</f>
         <v>4.7393364928909948E-8</v>
@@ -15229,13 +18366,13 @@
       <c r="B109" s="6">
         <v>0</v>
       </c>
-      <c r="C109" s="48"/>
-      <c r="D109" s="49"/>
-      <c r="E109" s="44">
+      <c r="C109" s="46"/>
+      <c r="D109" s="47"/>
+      <c r="E109" s="42">
         <f t="shared" si="13"/>
         <v>4.7393364928909949E-2</v>
       </c>
-      <c r="F109" s="44"/>
+      <c r="F109" s="42"/>
       <c r="I109" s="18">
         <f t="shared" ref="I109:I115" si="14">E109/1000000</f>
         <v>4.7393364928909948E-8</v>
@@ -15256,13 +18393,13 @@
       <c r="B110" s="6">
         <v>0</v>
       </c>
-      <c r="C110" s="48"/>
-      <c r="D110" s="49"/>
-      <c r="E110" s="44">
+      <c r="C110" s="46"/>
+      <c r="D110" s="47"/>
+      <c r="E110" s="42">
         <f t="shared" si="13"/>
         <v>4.7393364928909949E-2</v>
       </c>
-      <c r="F110" s="44"/>
+      <c r="F110" s="42"/>
       <c r="I110" s="18">
         <f t="shared" si="14"/>
         <v>4.7393364928909948E-8</v>
@@ -15283,13 +18420,13 @@
       <c r="B111" s="6">
         <v>0</v>
       </c>
-      <c r="C111" s="48"/>
-      <c r="D111" s="49"/>
-      <c r="E111" s="44">
+      <c r="C111" s="46"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="42">
         <f t="shared" si="13"/>
         <v>4.7393364928909949E-2</v>
       </c>
-      <c r="F111" s="44"/>
+      <c r="F111" s="42"/>
       <c r="I111" s="18">
         <f t="shared" si="14"/>
         <v>4.7393364928909948E-8</v>
@@ -15310,13 +18447,13 @@
       <c r="B112" s="6">
         <v>1.4E-2</v>
       </c>
-      <c r="C112" s="48"/>
-      <c r="D112" s="49"/>
-      <c r="E112" s="44">
+      <c r="C112" s="46"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="42">
         <f t="shared" si="13"/>
         <v>0.71090047393364919</v>
       </c>
-      <c r="F112" s="44"/>
+      <c r="F112" s="42"/>
       <c r="I112" s="18">
         <f t="shared" si="14"/>
         <v>7.1090047393364923E-7</v>
@@ -15337,13 +18474,13 @@
       <c r="B113" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="C113" s="48"/>
-      <c r="D113" s="49"/>
-      <c r="E113" s="44">
+      <c r="C113" s="46"/>
+      <c r="D113" s="47"/>
+      <c r="E113" s="42">
         <f t="shared" si="13"/>
         <v>0.47393364928909942</v>
       </c>
-      <c r="F113" s="44"/>
+      <c r="F113" s="42"/>
       <c r="I113" s="18">
         <f t="shared" si="14"/>
         <v>4.7393364928909945E-7</v>
@@ -15364,13 +18501,13 @@
       <c r="B114" s="6">
         <v>3.9E-2</v>
       </c>
-      <c r="C114" s="48"/>
-      <c r="D114" s="49"/>
-      <c r="E114" s="44">
+      <c r="C114" s="46"/>
+      <c r="D114" s="47"/>
+      <c r="E114" s="42">
         <f t="shared" si="13"/>
         <v>1.8957345971563981</v>
       </c>
-      <c r="F114" s="44"/>
+      <c r="F114" s="42"/>
       <c r="I114" s="18">
         <f t="shared" si="14"/>
         <v>1.8957345971563982E-6</v>
@@ -15391,13 +18528,13 @@
       <c r="B115" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C115" s="48"/>
-      <c r="D115" s="49"/>
-      <c r="E115" s="44">
+      <c r="C115" s="46"/>
+      <c r="D115" s="47"/>
+      <c r="E115" s="42">
         <f t="shared" si="13"/>
         <v>0.33175355450236965</v>
       </c>
-      <c r="F115" s="44"/>
+      <c r="F115" s="42"/>
       <c r="I115" s="18">
         <f t="shared" si="14"/>
         <v>3.3175355450236965E-7</v>
@@ -15412,19 +18549,19 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H120" s="25"/>
+      <c r="H120" s="24"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40" t="s">
+      <c r="A121" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B121" s="40"/>
-      <c r="C121" s="40"/>
-      <c r="D121" s="40"/>
-      <c r="E121" s="40"/>
-      <c r="F121" s="40"/>
-      <c r="G121" s="40"/>
-      <c r="H121" s="40"/>
+      <c r="B121" s="38"/>
+      <c r="C121" s="38"/>
+      <c r="D121" s="38"/>
+      <c r="E121" s="38"/>
+      <c r="F121" s="38"/>
+      <c r="G121" s="38"/>
+      <c r="H121" s="38"/>
     </row>
     <row r="123" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
@@ -15441,38 +18578,38 @@
         <v>28</v>
       </c>
       <c r="F123" s="2"/>
-      <c r="G123" s="39"/>
+      <c r="G123" s="37"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B124" s="4"/>
-      <c r="C124" s="65">
+      <c r="C124" s="63">
         <v>2.5</v>
       </c>
-      <c r="D124" s="66"/>
-      <c r="E124" s="57">
+      <c r="D124" s="64"/>
+      <c r="E124" s="55">
         <v>0</v>
       </c>
-      <c r="F124" s="58"/>
-      <c r="G124" s="37"/>
+      <c r="F124" s="56"/>
+      <c r="G124" s="36"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="32" t="s">
+      <c r="A125" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B125" s="2"/>
-      <c r="C125" s="63">
+      <c r="C125" s="61">
         <v>5</v>
       </c>
-      <c r="D125" s="64"/>
-      <c r="E125" s="42">
+      <c r="D125" s="62"/>
+      <c r="E125" s="40">
         <f>(B125+0.0053)/0.0019</f>
         <v>2.7894736842105265</v>
       </c>
-      <c r="F125" s="43"/>
-      <c r="G125" s="37"/>
+      <c r="F125" s="41"/>
+      <c r="G125" s="36"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
@@ -15481,32 +18618,32 @@
       <c r="B126" s="6">
         <v>2.3E-2</v>
       </c>
-      <c r="C126" s="48">
+      <c r="C126" s="46">
         <v>10</v>
       </c>
-      <c r="D126" s="62"/>
-      <c r="E126" s="42">
+      <c r="D126" s="60"/>
+      <c r="E126" s="40">
         <f t="shared" ref="E126:E131" si="17">(B126+0.0053)/0.0019</f>
         <v>14.894736842105262</v>
       </c>
-      <c r="F126" s="43"/>
-      <c r="G126" s="37"/>
+      <c r="F126" s="41"/>
+      <c r="G126" s="36"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B127" s="6"/>
-      <c r="C127" s="48">
+      <c r="C127" s="46">
         <v>25</v>
       </c>
-      <c r="D127" s="62"/>
-      <c r="E127" s="42">
+      <c r="D127" s="60"/>
+      <c r="E127" s="40">
         <f t="shared" si="17"/>
         <v>2.7894736842105265</v>
       </c>
-      <c r="F127" s="43"/>
-      <c r="G127" s="37"/>
+      <c r="F127" s="41"/>
+      <c r="G127" s="36"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
@@ -15515,16 +18652,16 @@
       <c r="B128" s="6">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="C128" s="48">
+      <c r="C128" s="46">
         <v>50</v>
       </c>
-      <c r="D128" s="62"/>
-      <c r="E128" s="42">
+      <c r="D128" s="60"/>
+      <c r="E128" s="40">
         <f t="shared" si="17"/>
         <v>53.315789473684212</v>
       </c>
-      <c r="F128" s="43"/>
-      <c r="G128" s="37"/>
+      <c r="F128" s="41"/>
+      <c r="G128" s="36"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
@@ -15533,16 +18670,16 @@
       <c r="B129" s="6">
         <v>0.20499999999999999</v>
       </c>
-      <c r="C129" s="48">
+      <c r="C129" s="46">
         <v>100</v>
       </c>
-      <c r="D129" s="62"/>
-      <c r="E129" s="42">
+      <c r="D129" s="60"/>
+      <c r="E129" s="40">
         <f t="shared" si="17"/>
         <v>110.68421052631578</v>
       </c>
-      <c r="F129" s="43"/>
-      <c r="G129" s="37"/>
+      <c r="F129" s="41"/>
+      <c r="G129" s="36"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
@@ -15551,16 +18688,16 @@
       <c r="B130" s="6">
         <v>0.39500000000000002</v>
       </c>
-      <c r="C130" s="48">
+      <c r="C130" s="46">
         <v>200</v>
       </c>
-      <c r="D130" s="62"/>
-      <c r="E130" s="42">
+      <c r="D130" s="60"/>
+      <c r="E130" s="40">
         <f t="shared" si="17"/>
         <v>210.68421052631581</v>
       </c>
-      <c r="F130" s="43"/>
-      <c r="G130" s="37"/>
+      <c r="F130" s="41"/>
+      <c r="G130" s="36"/>
     </row>
     <row r="131" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
@@ -15569,16 +18706,16 @@
       <c r="B131" s="8">
         <v>0.97</v>
       </c>
-      <c r="C131" s="50">
+      <c r="C131" s="48">
         <v>500</v>
       </c>
-      <c r="D131" s="51"/>
-      <c r="E131" s="52">
+      <c r="D131" s="49"/>
+      <c r="E131" s="50">
         <f t="shared" si="17"/>
         <v>513.31578947368416</v>
       </c>
-      <c r="F131" s="53"/>
-      <c r="G131" s="37"/>
+      <c r="F131" s="51"/>
+      <c r="G131" s="36"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
@@ -15587,14 +18724,14 @@
       <c r="B132" s="9">
         <v>1.4E-2</v>
       </c>
-      <c r="C132" s="54"/>
-      <c r="D132" s="59"/>
-      <c r="E132" s="69">
+      <c r="C132" s="52"/>
+      <c r="D132" s="57"/>
+      <c r="E132" s="67">
         <f t="shared" ref="E132" si="18">(B132+0.0053)/0.0019</f>
         <v>10.157894736842106</v>
       </c>
-      <c r="F132" s="70"/>
-      <c r="G132" s="37"/>
+      <c r="F132" s="68"/>
+      <c r="G132" s="36"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
@@ -15603,14 +18740,14 @@
       <c r="B133" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="C133" s="48"/>
-      <c r="D133" s="62"/>
-      <c r="E133" s="42">
+      <c r="C133" s="46"/>
+      <c r="D133" s="60"/>
+      <c r="E133" s="40">
         <f t="shared" ref="E133" si="19">(B133+0.0053)/0.0019</f>
         <v>7.5263157894736841</v>
       </c>
-      <c r="F133" s="43"/>
-      <c r="G133" s="37"/>
+      <c r="F133" s="41"/>
+      <c r="G133" s="36"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
@@ -15619,14 +18756,14 @@
       <c r="B134" s="6">
         <v>2E-3</v>
       </c>
-      <c r="C134" s="48"/>
-      <c r="D134" s="62"/>
-      <c r="E134" s="42">
+      <c r="C134" s="46"/>
+      <c r="D134" s="60"/>
+      <c r="E134" s="40">
         <f t="shared" ref="E134:E139" si="20">(B134+0.0053)/0.0019</f>
         <v>3.8421052631578947</v>
       </c>
-      <c r="F134" s="43"/>
-      <c r="G134" s="37"/>
+      <c r="F134" s="41"/>
+      <c r="G134" s="36"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
@@ -15635,14 +18772,14 @@
       <c r="B135" s="6">
         <v>0</v>
       </c>
-      <c r="C135" s="48"/>
-      <c r="D135" s="62"/>
-      <c r="E135" s="42">
+      <c r="C135" s="46"/>
+      <c r="D135" s="60"/>
+      <c r="E135" s="40">
         <f t="shared" si="20"/>
         <v>2.7894736842105265</v>
       </c>
-      <c r="F135" s="43"/>
-      <c r="G135" s="37"/>
+      <c r="F135" s="41"/>
+      <c r="G135" s="36"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
@@ -15651,14 +18788,14 @@
       <c r="B136" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C136" s="48"/>
-      <c r="D136" s="62"/>
-      <c r="E136" s="42">
+      <c r="C136" s="46"/>
+      <c r="D136" s="60"/>
+      <c r="E136" s="40">
         <f t="shared" si="20"/>
         <v>5.9473684210526319</v>
       </c>
-      <c r="F136" s="43"/>
-      <c r="G136" s="38"/>
+      <c r="F136" s="41"/>
+      <c r="G136" s="36"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
@@ -15667,14 +18804,14 @@
       <c r="B137" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C137" s="48"/>
-      <c r="D137" s="62"/>
-      <c r="E137" s="42">
+      <c r="C137" s="46"/>
+      <c r="D137" s="60"/>
+      <c r="E137" s="40">
         <f t="shared" si="20"/>
         <v>15.947368421052632</v>
       </c>
-      <c r="F137" s="43"/>
-      <c r="G137" s="37"/>
+      <c r="F137" s="41"/>
+      <c r="G137" s="36"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
@@ -15683,14 +18820,14 @@
       <c r="B138" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C138" s="48"/>
-      <c r="D138" s="62"/>
-      <c r="E138" s="42">
+      <c r="C138" s="46"/>
+      <c r="D138" s="60"/>
+      <c r="E138" s="40">
         <f t="shared" si="20"/>
         <v>9.6315789473684212</v>
       </c>
-      <c r="F138" s="43"/>
-      <c r="G138" s="37"/>
+      <c r="F138" s="41"/>
+      <c r="G138" s="36"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
@@ -15699,14 +18836,14 @@
       <c r="B139" s="6">
         <v>1.4E-2</v>
       </c>
-      <c r="C139" s="48"/>
-      <c r="D139" s="62"/>
-      <c r="E139" s="42">
+      <c r="C139" s="46"/>
+      <c r="D139" s="60"/>
+      <c r="E139" s="40">
         <f t="shared" si="20"/>
         <v>10.157894736842106</v>
       </c>
-      <c r="F139" s="43"/>
-      <c r="G139" s="37"/>
+      <c r="F139" s="41"/>
+      <c r="G139" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="88">
@@ -15803,4 +18940,1555 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L141"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>45925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51">
+        <v>18.038460000000001</v>
+      </c>
+      <c r="K51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52">
+        <v>1E-3</v>
+      </c>
+      <c r="K52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H54" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H55" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="30"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56" s="16"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C57" s="39">
+        <v>1</v>
+      </c>
+      <c r="D57" s="39"/>
+      <c r="E57" s="42">
+        <v>0</v>
+      </c>
+      <c r="F57" s="43"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="18"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C58" s="39">
+        <v>2.5</v>
+      </c>
+      <c r="D58" s="39"/>
+      <c r="E58" s="42">
+        <f>(B58-0.0099)/0.0098</f>
+        <v>0.82653061224489777</v>
+      </c>
+      <c r="F58" s="43"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="18"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="C59" s="39">
+        <v>5</v>
+      </c>
+      <c r="D59" s="39"/>
+      <c r="E59" s="42">
+        <f t="shared" ref="E59:E64" si="0">(B59-0.0099)/0.0098</f>
+        <v>3.3775510204081631</v>
+      </c>
+      <c r="F59" s="43"/>
+      <c r="H59" s="18">
+        <f>C59/1000000</f>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="I59" s="18">
+        <f>$J$51*H59</f>
+        <v>9.0192300000000014E-5</v>
+      </c>
+      <c r="J59" s="21">
+        <f>I59*1000</f>
+        <v>9.0192300000000017E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="6">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C60" s="39">
+        <v>10</v>
+      </c>
+      <c r="D60" s="39"/>
+      <c r="E60" s="42">
+        <f t="shared" si="0"/>
+        <v>8.5816326530612237</v>
+      </c>
+      <c r="F60" s="43"/>
+      <c r="H60" s="18">
+        <f>C60/1000000</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I60" s="18">
+        <f t="shared" ref="I60:I64" si="1">$J$51*H60</f>
+        <v>1.8038460000000003E-4</v>
+      </c>
+      <c r="J60" s="21">
+        <f t="shared" ref="J60:J64" si="2">I60*1000</f>
+        <v>0.18038460000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C61" s="39">
+        <v>25</v>
+      </c>
+      <c r="D61" s="39"/>
+      <c r="E61" s="42">
+        <f t="shared" si="0"/>
+        <v>24.5</v>
+      </c>
+      <c r="F61" s="43"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="C62" s="39">
+        <v>50</v>
+      </c>
+      <c r="D62" s="39"/>
+      <c r="E62" s="42">
+        <f t="shared" si="0"/>
+        <v>52.051020408163268</v>
+      </c>
+      <c r="F62" s="43"/>
+      <c r="H62" s="18">
+        <f>C62/1000000</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I62" s="18">
+        <f t="shared" si="1"/>
+        <v>9.0192300000000011E-4</v>
+      </c>
+      <c r="J62" s="21">
+        <f t="shared" si="2"/>
+        <v>0.90192300000000014</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="6">
+        <v>1.028</v>
+      </c>
+      <c r="C63" s="39">
+        <v>100</v>
+      </c>
+      <c r="D63" s="39"/>
+      <c r="E63" s="42">
+        <f t="shared" si="0"/>
+        <v>103.88775510204081</v>
+      </c>
+      <c r="F63" s="43"/>
+      <c r="H63" s="18">
+        <f>C63/1000000</f>
+        <v>1E-4</v>
+      </c>
+      <c r="I63" s="18">
+        <f t="shared" si="1"/>
+        <v>1.8038460000000002E-3</v>
+      </c>
+      <c r="J63" s="21">
+        <f t="shared" si="2"/>
+        <v>1.8038460000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="8">
+        <v>1.95</v>
+      </c>
+      <c r="C64" s="48">
+        <v>200</v>
+      </c>
+      <c r="D64" s="49"/>
+      <c r="E64" s="42">
+        <f t="shared" si="0"/>
+        <v>197.96938775510205</v>
+      </c>
+      <c r="F64" s="43"/>
+      <c r="H64" s="19">
+        <f>C64/1000000</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I64" s="19">
+        <f t="shared" si="1"/>
+        <v>3.6076920000000005E-3</v>
+      </c>
+      <c r="J64" s="22">
+        <f t="shared" si="2"/>
+        <v>3.6076920000000006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="9">
+        <v>0.224</v>
+      </c>
+      <c r="C65" s="52"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="42">
+        <f t="shared" ref="E65:E73" si="3">(B65-0.0099)/0.0098</f>
+        <v>21.846938775510207</v>
+      </c>
+      <c r="F65" s="43"/>
+      <c r="H65" s="18">
+        <f t="shared" ref="H65:H72" si="4">E65/1000000</f>
+        <v>2.1846938775510207E-5</v>
+      </c>
+      <c r="I65" s="18">
+        <f>$J$51*H65*$J$52</f>
+        <v>3.9408513122448985E-7</v>
+      </c>
+      <c r="J65" s="21">
+        <f>I65*1000000</f>
+        <v>0.39408513122448985</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="6">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C66" s="46"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="42">
+        <f t="shared" si="3"/>
+        <v>1.9489795918367347</v>
+      </c>
+      <c r="F66" s="43"/>
+      <c r="H66" s="18">
+        <f t="shared" si="4"/>
+        <v>1.9489795918367348E-6</v>
+      </c>
+      <c r="I66" s="18">
+        <f t="shared" ref="I66:I72" si="5">$J$51*H66*$J$52</f>
+        <v>3.515659040816327E-8</v>
+      </c>
+      <c r="J66" s="21">
+        <f t="shared" ref="J66:J72" si="6">I66*1000000</f>
+        <v>3.5156590408163269E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="6">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C67" s="46"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="42">
+        <f t="shared" si="3"/>
+        <v>1.4387755102040816</v>
+      </c>
+      <c r="F67" s="43"/>
+      <c r="H67" s="18">
+        <f t="shared" si="4"/>
+        <v>1.4387755102040816E-6</v>
+      </c>
+      <c r="I67" s="18">
+        <f t="shared" si="5"/>
+        <v>2.595329448979592E-8</v>
+      </c>
+      <c r="J67" s="21">
+        <f t="shared" si="6"/>
+        <v>2.5953294489795921E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" s="6">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="C68" s="46"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="42">
+        <f t="shared" si="3"/>
+        <v>7.0510204081632653</v>
+      </c>
+      <c r="F68" s="43"/>
+      <c r="H68" s="18">
+        <f t="shared" si="4"/>
+        <v>7.051020408163265E-6</v>
+      </c>
+      <c r="I68" s="18">
+        <f t="shared" si="5"/>
+        <v>1.2718954959183674E-7</v>
+      </c>
+      <c r="J68" s="21">
+        <f t="shared" si="6"/>
+        <v>0.12718954959183673</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="6">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C69" s="46"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="42">
+        <f t="shared" si="3"/>
+        <v>3.1734693877551026</v>
+      </c>
+      <c r="F69" s="43"/>
+      <c r="H69" s="18">
+        <f t="shared" si="4"/>
+        <v>3.1734693877551026E-6</v>
+      </c>
+      <c r="I69" s="18">
+        <f t="shared" si="5"/>
+        <v>5.724450061224491E-8</v>
+      </c>
+      <c r="J69" s="21">
+        <f t="shared" si="6"/>
+        <v>5.7244500612244911E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="6">
+        <v>0.224</v>
+      </c>
+      <c r="C70" s="46"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="42">
+        <f t="shared" si="3"/>
+        <v>21.846938775510207</v>
+      </c>
+      <c r="F70" s="43"/>
+      <c r="H70" s="18">
+        <f t="shared" si="4"/>
+        <v>2.1846938775510207E-5</v>
+      </c>
+      <c r="I70" s="18">
+        <f t="shared" si="5"/>
+        <v>3.9408513122448985E-7</v>
+      </c>
+      <c r="J70" s="21">
+        <f t="shared" si="6"/>
+        <v>0.39408513122448985</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="6">
+        <v>0.221</v>
+      </c>
+      <c r="C71" s="46"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="42">
+        <f t="shared" si="3"/>
+        <v>21.540816326530614</v>
+      </c>
+      <c r="F71" s="43"/>
+      <c r="H71" s="18">
+        <f t="shared" si="4"/>
+        <v>2.1540816326530614E-5</v>
+      </c>
+      <c r="I71" s="18">
+        <f t="shared" si="5"/>
+        <v>3.8856315367346942E-7</v>
+      </c>
+      <c r="J71" s="21">
+        <f t="shared" si="6"/>
+        <v>0.38856315367346944</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="6">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="C72" s="46"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="42">
+        <f t="shared" si="3"/>
+        <v>10.928571428571429</v>
+      </c>
+      <c r="F72" s="43"/>
+      <c r="H72" s="18">
+        <f t="shared" si="4"/>
+        <v>1.0928571428571429E-5</v>
+      </c>
+      <c r="I72" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9713459857142859E-7</v>
+      </c>
+      <c r="J72" s="21">
+        <f t="shared" si="6"/>
+        <v>0.19713459857142859</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C73" s="46"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="42">
+        <f t="shared" si="3"/>
+        <v>2.5612244897959191</v>
+      </c>
+      <c r="F73" s="43"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I98" t="s">
+        <v>25</v>
+      </c>
+      <c r="K98">
+        <v>94.972999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I99" t="s">
+        <v>16</v>
+      </c>
+      <c r="K99">
+        <v>1E-3</v>
+      </c>
+      <c r="L99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I101" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J101" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K101" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" s="35"/>
+      <c r="I102" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J102" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="4">
+        <v>0</v>
+      </c>
+      <c r="C103" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D103" s="11"/>
+      <c r="E103" s="55">
+        <f>(B103+0.001)/0.0201</f>
+        <v>4.975124378109453E-2</v>
+      </c>
+      <c r="F103" s="56"/>
+      <c r="I103" s="16">
+        <f t="shared" ref="I103:I108" si="7">C103/1000000</f>
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="J103" s="16">
+        <f t="shared" ref="J103:J108" si="8">$K$98*I103</f>
+        <v>4.74865E-5</v>
+      </c>
+      <c r="K103" s="23">
+        <f>J103*1000</f>
+        <v>4.7486500000000001E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="C104" s="12">
+        <v>1</v>
+      </c>
+      <c r="D104" s="13"/>
+      <c r="E104" s="42">
+        <f t="shared" ref="E104:E108" si="9">(B104+0.001)/0.0201</f>
+        <v>0.54726368159203975</v>
+      </c>
+      <c r="F104" s="43"/>
+      <c r="I104" s="18">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J104" s="18">
+        <f t="shared" si="8"/>
+        <v>9.4973E-5</v>
+      </c>
+      <c r="K104" s="21">
+        <f t="shared" ref="K104:K108" si="10">J104*1000</f>
+        <v>9.4973000000000002E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" s="6">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="C105" s="12">
+        <v>5</v>
+      </c>
+      <c r="D105" s="13"/>
+      <c r="E105" s="42">
+        <f t="shared" si="9"/>
+        <v>4.1293532338308463</v>
+      </c>
+      <c r="F105" s="43"/>
+      <c r="I105" s="18">
+        <f t="shared" si="7"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="J105" s="18">
+        <f t="shared" si="8"/>
+        <v>4.7486500000000004E-4</v>
+      </c>
+      <c r="K105" s="21">
+        <f t="shared" si="10"/>
+        <v>0.47486500000000004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="6">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="C106" s="12">
+        <v>10</v>
+      </c>
+      <c r="D106" s="13"/>
+      <c r="E106" s="42">
+        <f t="shared" si="9"/>
+        <v>10.149253731343284</v>
+      </c>
+      <c r="F106" s="43"/>
+      <c r="I106" s="18">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J106" s="18">
+        <f t="shared" si="8"/>
+        <v>9.4973000000000008E-4</v>
+      </c>
+      <c r="K106" s="21">
+        <f t="shared" si="10"/>
+        <v>0.94973000000000007</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="C107" s="32">
+        <v>25</v>
+      </c>
+      <c r="D107" s="33"/>
+      <c r="E107" s="42">
+        <f t="shared" si="9"/>
+        <v>24.427860696517413</v>
+      </c>
+      <c r="F107" s="43"/>
+      <c r="I107" s="19">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="J107" s="19">
+        <f t="shared" si="8"/>
+        <v>2.374325E-3</v>
+      </c>
+      <c r="K107" s="22">
+        <f t="shared" si="10"/>
+        <v>2.3743250000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="8"/>
+      <c r="C108" s="14">
+        <v>50</v>
+      </c>
+      <c r="D108" s="15"/>
+      <c r="E108" s="44">
+        <f t="shared" si="9"/>
+        <v>4.975124378109453E-2</v>
+      </c>
+      <c r="F108" s="45"/>
+      <c r="I108" s="18">
+        <f t="shared" si="7"/>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J108" s="18">
+        <f t="shared" si="8"/>
+        <v>4.7486500000000001E-3</v>
+      </c>
+      <c r="K108" s="21">
+        <f t="shared" si="10"/>
+        <v>4.7486500000000005</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B109" s="9">
+        <v>0</v>
+      </c>
+      <c r="C109" s="52"/>
+      <c r="D109" s="53"/>
+      <c r="E109" s="54">
+        <f t="shared" ref="E109" si="11">(B109+0.001)/0.0201</f>
+        <v>4.975124378109453E-2</v>
+      </c>
+      <c r="F109" s="54"/>
+      <c r="I109" s="18">
+        <f>E109/1000000</f>
+        <v>4.9751243781094531E-8</v>
+      </c>
+      <c r="J109" s="18">
+        <f>$J$51*I109*$K$99</f>
+        <v>8.9743582089552253E-10</v>
+      </c>
+      <c r="K109" s="21">
+        <f>J109*1000000</f>
+        <v>8.9743582089552249E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B110" s="6">
+        <v>0</v>
+      </c>
+      <c r="C110" s="46"/>
+      <c r="D110" s="47"/>
+      <c r="E110" s="42">
+        <f t="shared" ref="E110:E117" si="12">(B110+0.001)/0.0201</f>
+        <v>4.975124378109453E-2</v>
+      </c>
+      <c r="F110" s="42"/>
+      <c r="I110" s="18">
+        <f t="shared" ref="I110:I116" si="13">E110/1000000</f>
+        <v>4.9751243781094531E-8</v>
+      </c>
+      <c r="J110" s="18">
+        <f t="shared" ref="J110:J116" si="14">$J$51*I110*$J$52</f>
+        <v>8.9743582089552253E-10</v>
+      </c>
+      <c r="K110" s="21">
+        <f>J110*1000000</f>
+        <v>8.9743582089552249E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B111" s="6">
+        <v>0</v>
+      </c>
+      <c r="C111" s="46"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="42">
+        <f t="shared" si="12"/>
+        <v>4.975124378109453E-2</v>
+      </c>
+      <c r="F111" s="42"/>
+      <c r="I111" s="18">
+        <f t="shared" si="13"/>
+        <v>4.9751243781094531E-8</v>
+      </c>
+      <c r="J111" s="18">
+        <f t="shared" si="14"/>
+        <v>8.9743582089552253E-10</v>
+      </c>
+      <c r="K111" s="21">
+        <f t="shared" ref="K111:K116" si="15">J111*1000000</f>
+        <v>8.9743582089552249E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B112" s="6">
+        <v>0</v>
+      </c>
+      <c r="C112" s="46"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="42">
+        <f t="shared" si="12"/>
+        <v>4.975124378109453E-2</v>
+      </c>
+      <c r="F112" s="42"/>
+      <c r="I112" s="18">
+        <f t="shared" si="13"/>
+        <v>4.9751243781094531E-8</v>
+      </c>
+      <c r="J112" s="18">
+        <f t="shared" si="14"/>
+        <v>8.9743582089552253E-10</v>
+      </c>
+      <c r="K112" s="21">
+        <f t="shared" si="15"/>
+        <v>8.9743582089552249E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B113" s="6">
+        <v>0</v>
+      </c>
+      <c r="C113" s="46"/>
+      <c r="D113" s="47"/>
+      <c r="E113" s="42">
+        <f t="shared" si="12"/>
+        <v>4.975124378109453E-2</v>
+      </c>
+      <c r="F113" s="42"/>
+      <c r="I113" s="18">
+        <f t="shared" si="13"/>
+        <v>4.9751243781094531E-8</v>
+      </c>
+      <c r="J113" s="18">
+        <f t="shared" si="14"/>
+        <v>8.9743582089552253E-10</v>
+      </c>
+      <c r="K113" s="21">
+        <f t="shared" si="15"/>
+        <v>8.9743582089552249E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B114" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="C114" s="46"/>
+      <c r="D114" s="47"/>
+      <c r="E114" s="42">
+        <f t="shared" si="12"/>
+        <v>0.1492537313432836</v>
+      </c>
+      <c r="F114" s="42"/>
+      <c r="I114" s="18">
+        <f t="shared" si="13"/>
+        <v>1.492537313432836E-7</v>
+      </c>
+      <c r="J114" s="18">
+        <f t="shared" si="14"/>
+        <v>2.6923074626865681E-9</v>
+      </c>
+      <c r="K114" s="21">
+        <f t="shared" si="15"/>
+        <v>2.692307462686568E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B115" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="C115" s="46"/>
+      <c r="D115" s="47"/>
+      <c r="E115" s="42">
+        <f t="shared" si="12"/>
+        <v>0.54726368159203975</v>
+      </c>
+      <c r="F115" s="42"/>
+      <c r="I115" s="18">
+        <f t="shared" si="13"/>
+        <v>5.4726368159203972E-7</v>
+      </c>
+      <c r="J115" s="18">
+        <f t="shared" si="14"/>
+        <v>9.8717940298507459E-9</v>
+      </c>
+      <c r="K115" s="21">
+        <f t="shared" si="15"/>
+        <v>9.8717940298507466E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B116" s="6">
+        <v>0</v>
+      </c>
+      <c r="C116" s="46"/>
+      <c r="D116" s="47"/>
+      <c r="E116" s="42">
+        <f t="shared" si="12"/>
+        <v>4.975124378109453E-2</v>
+      </c>
+      <c r="F116" s="42"/>
+      <c r="I116" s="18">
+        <f t="shared" si="13"/>
+        <v>4.9751243781094531E-8</v>
+      </c>
+      <c r="J116" s="18">
+        <f t="shared" si="14"/>
+        <v>8.9743582089552253E-10</v>
+      </c>
+      <c r="K116" s="21">
+        <f t="shared" si="15"/>
+        <v>8.9743582089552249E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B117" s="69">
+        <v>0</v>
+      </c>
+      <c r="C117" s="46"/>
+      <c r="D117" s="47"/>
+      <c r="E117" s="42">
+        <f t="shared" si="12"/>
+        <v>4.975124378109453E-2</v>
+      </c>
+      <c r="F117" s="42"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H121" s="24"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B122" s="38"/>
+      <c r="C122" s="38"/>
+      <c r="D122" s="38"/>
+      <c r="E122" s="38"/>
+      <c r="F122" s="38"/>
+      <c r="G122" s="38"/>
+      <c r="H122" s="38"/>
+    </row>
+    <row r="124" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F124" s="2"/>
+      <c r="G124" s="37"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B125" s="4"/>
+      <c r="C125" s="63">
+        <v>2.5</v>
+      </c>
+      <c r="D125" s="64"/>
+      <c r="E125" s="55">
+        <v>0</v>
+      </c>
+      <c r="F125" s="56"/>
+      <c r="G125" s="36"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="61">
+        <v>5</v>
+      </c>
+      <c r="D126" s="62"/>
+      <c r="E126" s="40">
+        <f>(B126-0.0011)/0.0019</f>
+        <v>-0.57894736842105265</v>
+      </c>
+      <c r="F126" s="41"/>
+      <c r="G126" s="36"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C127" s="46">
+        <v>10</v>
+      </c>
+      <c r="D127" s="60"/>
+      <c r="E127" s="40">
+        <f t="shared" ref="E127:E141" si="16">(B127-0.0011)/0.0019</f>
+        <v>11</v>
+      </c>
+      <c r="F127" s="41"/>
+      <c r="G127" s="36"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="6"/>
+      <c r="C128" s="46">
+        <v>25</v>
+      </c>
+      <c r="D128" s="60"/>
+      <c r="E128" s="40">
+        <f t="shared" si="16"/>
+        <v>-0.57894736842105265</v>
+      </c>
+      <c r="F128" s="41"/>
+      <c r="G128" s="36"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" s="6">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C129" s="46">
+        <v>50</v>
+      </c>
+      <c r="D129" s="60"/>
+      <c r="E129" s="40">
+        <f t="shared" si="16"/>
+        <v>53.105263157894733</v>
+      </c>
+      <c r="F129" s="41"/>
+      <c r="G129" s="36"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="6">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C130" s="46">
+        <v>100</v>
+      </c>
+      <c r="D130" s="60"/>
+      <c r="E130" s="40">
+        <f t="shared" si="16"/>
+        <v>101.5263157894737</v>
+      </c>
+      <c r="F130" s="41"/>
+      <c r="G130" s="36"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" s="6">
+        <v>0.376</v>
+      </c>
+      <c r="C131" s="46">
+        <v>200</v>
+      </c>
+      <c r="D131" s="60"/>
+      <c r="E131" s="40">
+        <f t="shared" si="16"/>
+        <v>197.31578947368422</v>
+      </c>
+      <c r="F131" s="41"/>
+      <c r="G131" s="36"/>
+    </row>
+    <row r="132" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" s="8">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="C132" s="48">
+        <v>500</v>
+      </c>
+      <c r="D132" s="49"/>
+      <c r="E132" s="40">
+        <f t="shared" si="16"/>
+        <v>508.36842105263156</v>
+      </c>
+      <c r="F132" s="41"/>
+      <c r="G132" s="36"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B133" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C133" s="52"/>
+      <c r="D133" s="57"/>
+      <c r="E133" s="40">
+        <f t="shared" si="16"/>
+        <v>4.1578947368421044</v>
+      </c>
+      <c r="F133" s="41"/>
+      <c r="G133" s="36"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B134" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C134" s="46"/>
+      <c r="D134" s="60"/>
+      <c r="E134" s="40">
+        <f t="shared" si="16"/>
+        <v>2.5789473684210527</v>
+      </c>
+      <c r="F134" s="41"/>
+      <c r="G134" s="36"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B135" s="6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C135" s="46"/>
+      <c r="D135" s="60"/>
+      <c r="E135" s="40">
+        <f t="shared" si="16"/>
+        <v>5.2105263157894735</v>
+      </c>
+      <c r="F135" s="41"/>
+      <c r="G135" s="36"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B136" s="6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C136" s="46"/>
+      <c r="D136" s="60"/>
+      <c r="E136" s="40">
+        <f t="shared" si="16"/>
+        <v>3.1052631578947367</v>
+      </c>
+      <c r="F136" s="41"/>
+      <c r="G136" s="36"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B137" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C137" s="46"/>
+      <c r="D137" s="60"/>
+      <c r="E137" s="40">
+        <f t="shared" si="16"/>
+        <v>2.5789473684210527</v>
+      </c>
+      <c r="F137" s="41"/>
+      <c r="G137" s="36"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B138" s="6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C138" s="46"/>
+      <c r="D138" s="60"/>
+      <c r="E138" s="40">
+        <f t="shared" si="16"/>
+        <v>23.105263157894736</v>
+      </c>
+      <c r="F138" s="41"/>
+      <c r="G138" s="36"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B139" s="6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C139" s="46"/>
+      <c r="D139" s="60"/>
+      <c r="E139" s="40">
+        <f t="shared" si="16"/>
+        <v>18.368421052631579</v>
+      </c>
+      <c r="F139" s="41"/>
+      <c r="G139" s="36"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B140" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C140" s="46"/>
+      <c r="D140" s="60"/>
+      <c r="E140" s="40">
+        <f t="shared" si="16"/>
+        <v>13.105263157894736</v>
+      </c>
+      <c r="F140" s="41"/>
+      <c r="G140" s="36"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B141" s="69">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C141" s="46"/>
+      <c r="D141" s="60"/>
+      <c r="E141" s="40">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="F141" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="A122:H122"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="E139:F139"/>
+  </mergeCells>
+  <pageMargins left="0.11458333333333333" right="1.0416666666666666E-2" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>